--- a/RMS-RA Data check/RMS-RA部门销售数据核对/表格/RMS-RA数据核对2016-06-01.xlsx
+++ b/RMS-RA Data check/RMS-RA部门销售数据核对/表格/RMS-RA数据核对2016-06-01.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="79">
   <si>
     <t>日销售总额</t>
   </si>
@@ -294,9 +294,6 @@
     <t>910-市场部</t>
   </si>
   <si>
-    <t>43-加工专柜</t>
-  </si>
-  <si>
     <t>销售预算金额</t>
   </si>
   <si>
@@ -307,6 +304,25 @@
   </si>
   <si>
     <t>昨天客流量</t>
+  </si>
+  <si>
+    <r>
+      <t>43-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加工专柜</t>
+    </r>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>43-加工专柜</t>
   </si>
 </sst>
 </file>
@@ -2860,7 +2876,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="177" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -3003,6 +3019,12 @@
     </xf>
     <xf numFmtId="176" fontId="42" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="42" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -56222,6 +56244,88 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1270" name="Picture 1" descr="徽标"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="523875" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1271" name="Picture 2" descr="cid:2d6dbc7513">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId715" tgtFrame="_blank"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId716" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19840575" y="0"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -56511,13 +56615,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -56570,10 +56674,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="12"/>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="66"/>
+      <c r="D2" s="68"/>
       <c r="E2" s="13"/>
       <c r="F2" s="24"/>
       <c r="G2" s="14"/>
@@ -56584,599 +56688,599 @@
       <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="15">
-        <f>SUM(E4:E41)</f>
-        <v>28343163.34480001</v>
+        <f>SUM(E4:E42)</f>
+        <v>19236031.133600008</v>
       </c>
       <c r="F3" s="25">
         <f>RA!I7</f>
-        <v>2626815.6641000002</v>
+        <v>1613907.8396999999</v>
       </c>
       <c r="G3" s="16">
-        <f>SUM(G4:G41)</f>
-        <v>25716420.233899992</v>
+        <f>SUM(G4:G42)</f>
+        <v>17622123.293899998</v>
       </c>
       <c r="H3" s="27">
         <f>RA!J7</f>
-        <v>9.2658613663099008</v>
+        <v>8.3900250966060792</v>
       </c>
       <c r="I3" s="20">
-        <f>SUM(I4:I41)</f>
-        <v>28343170.58871365</v>
+        <f>SUM(I4:I42)</f>
+        <v>19236035.804429885</v>
       </c>
       <c r="J3" s="21">
-        <f>SUM(J4:J41)</f>
-        <v>25716419.367887586</v>
+        <f>SUM(J4:J42)</f>
+        <v>17622123.145059746</v>
       </c>
       <c r="K3" s="22">
         <f>E3-I3</f>
-        <v>-7.2439136393368244</v>
+        <v>-4.6708298772573471</v>
       </c>
       <c r="L3" s="22">
         <f>G3-J3</f>
-        <v>0.86601240560412407</v>
+        <v>0.14884025231003761</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="68">
+      <c r="A4" s="70">
         <f>RA!A8</f>
-        <v>42522</v>
+        <v>42528</v>
       </c>
       <c r="B4" s="12">
         <v>12</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="15">
         <f>VLOOKUP(C4,RA!B8:D35,3,0)</f>
-        <v>515806.14919999999</v>
+        <v>452264.03480000002</v>
       </c>
       <c r="F4" s="25">
         <f>VLOOKUP(C4,RA!B8:I38,8,0)</f>
-        <v>119671.5843</v>
+        <v>111141.236</v>
       </c>
       <c r="G4" s="16">
-        <f t="shared" ref="G4:G41" si="0">E4-F4</f>
-        <v>396134.5649</v>
+        <f t="shared" ref="G4:G42" si="0">E4-F4</f>
+        <v>341122.79879999999</v>
       </c>
       <c r="H4" s="27">
         <f>RA!J8</f>
-        <v>23.200883604355401</v>
+        <v>24.5744139370155</v>
       </c>
       <c r="I4" s="20">
         <f>VLOOKUP(B4,RMS!B:D,3,FALSE)</f>
-        <v>515806.89219401701</v>
+        <v>452264.66829914501</v>
       </c>
       <c r="J4" s="21">
         <f>VLOOKUP(B4,RMS!B:E,4,FALSE)</f>
-        <v>396134.57583504298</v>
+        <v>341122.80624615401</v>
       </c>
       <c r="K4" s="22">
-        <f t="shared" ref="K4:K41" si="1">E4-I4</f>
-        <v>-0.74299401702592149</v>
+        <f t="shared" ref="K4:K42" si="1">E4-I4</f>
+        <v>-0.63349914498394355</v>
       </c>
       <c r="L4" s="22">
-        <f t="shared" ref="L4:L41" si="2">G4-J4</f>
-        <v>-1.0935042984783649E-2</v>
+        <f t="shared" ref="L4:L42" si="2">G4-J4</f>
+        <v>-7.4461540207266808E-3</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="68"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="12">
         <v>13</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="63"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="15">
         <f>VLOOKUP(C5,RA!B8:D36,3,0)</f>
-        <v>380186.98109999998</v>
+        <v>48594.9018</v>
       </c>
       <c r="F5" s="25">
         <f>VLOOKUP(C5,RA!B9:I39,8,0)</f>
-        <v>89050.571800000005</v>
+        <v>10690.7237</v>
       </c>
       <c r="G5" s="16">
         <f t="shared" si="0"/>
-        <v>291136.40929999994</v>
+        <v>37904.178099999997</v>
       </c>
       <c r="H5" s="27">
         <f>RA!J9</f>
-        <v>23.4228356642694</v>
+        <v>21.999681662079201</v>
       </c>
       <c r="I5" s="20">
         <f>VLOOKUP(B5,RMS!B:D,3,FALSE)</f>
-        <v>380187.24903333298</v>
+        <v>48594.920090598302</v>
       </c>
       <c r="J5" s="21">
         <f>VLOOKUP(B5,RMS!B:E,4,FALSE)</f>
-        <v>291136.43879572599</v>
+        <v>37904.178466666701</v>
       </c>
       <c r="K5" s="22">
         <f t="shared" si="1"/>
-        <v>-0.26793333300156519</v>
+        <v>-1.829059830197366E-2</v>
       </c>
       <c r="L5" s="22">
         <f t="shared" si="2"/>
-        <v>-2.9495726048480719E-2</v>
+        <v>-3.6666670348495245E-4</v>
       </c>
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="68"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="12">
         <v>14</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="63"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="15">
         <f>VLOOKUP(C6,RA!B10:D37,3,0)</f>
-        <v>1662648.6795000001</v>
+        <v>99784.681899999996</v>
       </c>
       <c r="F6" s="25">
         <f>VLOOKUP(C6,RA!B10:I40,8,0)</f>
-        <v>287940.66989999998</v>
+        <v>27966.0602</v>
       </c>
       <c r="G6" s="16">
         <f t="shared" si="0"/>
-        <v>1374708.0096</v>
+        <v>71818.621699999989</v>
       </c>
       <c r="H6" s="27">
         <f>RA!J10</f>
-        <v>17.318190754921901</v>
+        <v>28.026406125167</v>
       </c>
       <c r="I6" s="20">
         <f>VLOOKUP(B6,RMS!B:D,3,FALSE)</f>
-        <v>1662650.9211164401</v>
+        <v>99786.655855343794</v>
       </c>
       <c r="J6" s="21">
         <f>VLOOKUP(B6,RMS!B:E,4,FALSE)</f>
-        <v>1374708.0171943</v>
+        <v>71818.620230735294</v>
       </c>
       <c r="K6" s="22">
         <f>E6-I6</f>
-        <v>-2.2416164400056005</v>
+        <v>-1.9739553437975701</v>
       </c>
       <c r="L6" s="22">
         <f t="shared" si="2"/>
-        <v>-7.5942999683320522E-3</v>
+        <v>1.469264694605954E-3</v>
       </c>
       <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="68"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="12">
         <v>15</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="63"/>
+      <c r="D7" s="65"/>
       <c r="E7" s="15">
         <f>VLOOKUP(C7,RA!B10:D38,3,0)</f>
-        <v>79740.717099999994</v>
+        <v>67401.355200000005</v>
       </c>
       <c r="F7" s="25">
         <f>VLOOKUP(C7,RA!B11:I41,8,0)</f>
-        <v>19252.4015</v>
+        <v>15611.7665</v>
       </c>
       <c r="G7" s="16">
         <f t="shared" si="0"/>
-        <v>60488.315599999994</v>
+        <v>51789.588700000008</v>
       </c>
       <c r="H7" s="27">
         <f>RA!J11</f>
-        <v>24.143752652558</v>
+        <v>23.162392586432698</v>
       </c>
       <c r="I7" s="20">
         <f>VLOOKUP(B7,RMS!B:D,3,FALSE)</f>
-        <v>79740.773137720302</v>
+        <v>67401.374739263294</v>
       </c>
       <c r="J7" s="21">
         <f>VLOOKUP(B7,RMS!B:E,4,FALSE)</f>
-        <v>60488.315673595003</v>
+        <v>51789.588422350796</v>
       </c>
       <c r="K7" s="22">
         <f t="shared" si="1"/>
-        <v>-5.6037720307358541E-2</v>
+        <v>-1.953926328860689E-2</v>
       </c>
       <c r="L7" s="22">
         <f t="shared" si="2"/>
-        <v>-7.3595008871052414E-5</v>
+        <v>2.7764921105699614E-4</v>
       </c>
       <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="68"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="12">
         <v>16</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="63"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="15">
         <f>VLOOKUP(C8,RA!B12:D38,3,0)</f>
-        <v>904708.51459999999</v>
+        <v>260685.8763</v>
       </c>
       <c r="F8" s="25">
         <f>VLOOKUP(C8,RA!B12:I42,8,0)</f>
-        <v>272194.69219999999</v>
+        <v>40441.314200000001</v>
       </c>
       <c r="G8" s="16">
         <f t="shared" si="0"/>
-        <v>632513.82239999995</v>
+        <v>220244.56210000001</v>
       </c>
       <c r="H8" s="27">
         <f>RA!J12</f>
-        <v>30.086451913227101</v>
+        <v>15.513427414632799</v>
       </c>
       <c r="I8" s="20">
         <f>VLOOKUP(B8,RMS!B:D,3,FALSE)</f>
-        <v>904708.58645213698</v>
+        <v>260685.912826496</v>
       </c>
       <c r="J8" s="21">
         <f>VLOOKUP(B8,RMS!B:E,4,FALSE)</f>
-        <v>632513.82323333295</v>
+        <v>220244.56342734999</v>
       </c>
       <c r="K8" s="22">
         <f t="shared" si="1"/>
-        <v>-7.1852136985398829E-2</v>
+        <v>-3.6526495998259634E-2</v>
       </c>
       <c r="L8" s="22">
         <f t="shared" si="2"/>
-        <v>-8.3333300426602364E-4</v>
+        <v>-1.3273499789647758E-3</v>
       </c>
       <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="68"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="12">
         <v>17</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="63"/>
+      <c r="D9" s="65"/>
       <c r="E9" s="15">
         <f>VLOOKUP(C9,RA!B12:D39,3,0)</f>
-        <v>750997.94469999999</v>
+        <v>205992.8609</v>
       </c>
       <c r="F9" s="25">
         <f>VLOOKUP(C9,RA!B13:I43,8,0)</f>
-        <v>229700.55350000001</v>
+        <v>61642.095099999999</v>
       </c>
       <c r="G9" s="16">
         <f t="shared" si="0"/>
-        <v>521297.39119999995</v>
+        <v>144350.76579999999</v>
       </c>
       <c r="H9" s="27">
         <f>RA!J13</f>
-        <v>30.586042894133101</v>
+        <v>29.924384190151301</v>
       </c>
       <c r="I9" s="20">
         <f>VLOOKUP(B9,RMS!B:D,3,FALSE)</f>
-        <v>750998.530275214</v>
+        <v>205993.04352393199</v>
       </c>
       <c r="J9" s="21">
         <f>VLOOKUP(B9,RMS!B:E,4,FALSE)</f>
-        <v>521297.38374871801</v>
+        <v>144350.762141026</v>
       </c>
       <c r="K9" s="22">
         <f t="shared" si="1"/>
-        <v>-0.5855752140050754</v>
+        <v>-0.18262393199256621</v>
       </c>
       <c r="L9" s="22">
         <f t="shared" si="2"/>
-        <v>7.4512819410301745E-3</v>
+        <v>3.6589739902410656E-3</v>
       </c>
       <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="68"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="12">
         <v>18</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="63"/>
+      <c r="D10" s="65"/>
       <c r="E10" s="15">
         <f>VLOOKUP(C10,RA!B14:D40,3,0)</f>
-        <v>143478.4485</v>
+        <v>148356.65919999999</v>
       </c>
       <c r="F10" s="25">
         <f>VLOOKUP(C10,RA!B14:I43,8,0)</f>
-        <v>34019.222300000001</v>
+        <v>30602.485100000002</v>
       </c>
       <c r="G10" s="16">
         <f t="shared" si="0"/>
-        <v>109459.2262</v>
+        <v>117754.17409999999</v>
       </c>
       <c r="H10" s="27">
         <f>RA!J14</f>
-        <v>23.710336050922699</v>
+        <v>20.6276450716949</v>
       </c>
       <c r="I10" s="20">
         <f>VLOOKUP(B10,RMS!B:D,3,FALSE)</f>
-        <v>143478.49600940201</v>
+        <v>148356.665644444</v>
       </c>
       <c r="J10" s="21">
         <f>VLOOKUP(B10,RMS!B:E,4,FALSE)</f>
-        <v>109459.225372649</v>
+        <v>117754.170852991</v>
       </c>
       <c r="K10" s="22">
         <f t="shared" si="1"/>
-        <v>-4.750940200756304E-2</v>
+        <v>-6.4444440067745745E-3</v>
       </c>
       <c r="L10" s="22">
         <f t="shared" si="2"/>
-        <v>8.2735100295394659E-4</v>
+        <v>3.2470089936396107E-3</v>
       </c>
       <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="68"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="12">
         <v>19</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="63"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="15">
         <f>VLOOKUP(C11,RA!B14:D41,3,0)</f>
-        <v>139489.0779</v>
+        <v>115624.247</v>
       </c>
       <c r="F11" s="25">
         <f>VLOOKUP(C11,RA!B15:I44,8,0)</f>
-        <v>29389.125199999999</v>
+        <v>21998.419000000002</v>
       </c>
       <c r="G11" s="16">
         <f t="shared" si="0"/>
-        <v>110099.95270000001</v>
+        <v>93625.828000000009</v>
       </c>
       <c r="H11" s="27">
         <f>RA!J15</f>
-        <v>21.069122860693899</v>
+        <v>19.025783579805701</v>
       </c>
       <c r="I11" s="20">
         <f>VLOOKUP(B11,RMS!B:D,3,FALSE)</f>
-        <v>139489.312200855</v>
+        <v>115624.472710256</v>
       </c>
       <c r="J11" s="21">
         <f>VLOOKUP(B11,RMS!B:E,4,FALSE)</f>
-        <v>110099.95122735</v>
+        <v>93625.827189743606</v>
       </c>
       <c r="K11" s="22">
         <f t="shared" si="1"/>
-        <v>-0.23430085499421693</v>
+        <v>-0.22571025599609129</v>
       </c>
       <c r="L11" s="22">
         <f t="shared" si="2"/>
-        <v>1.4726500085089356E-3</v>
+        <v>8.1025640247389674E-4</v>
       </c>
       <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="68"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="12">
         <v>21</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="63"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="15">
         <f>VLOOKUP(C12,RA!B16:D42,3,0)</f>
-        <v>1338581.0334000001</v>
+        <v>1017211.6933</v>
       </c>
       <c r="F12" s="25">
         <f>VLOOKUP(C12,RA!B16:I45,8,0)</f>
-        <v>-64176.915999999997</v>
+        <v>-5786.2759999999998</v>
       </c>
       <c r="G12" s="16">
         <f t="shared" si="0"/>
-        <v>1402757.9494</v>
+        <v>1022997.9693</v>
       </c>
       <c r="H12" s="27">
         <f>RA!J16</f>
-        <v>-4.7943990239418302</v>
+        <v>-0.56883695283017999</v>
       </c>
       <c r="I12" s="20">
         <f>VLOOKUP(B12,RMS!B:D,3,FALSE)</f>
-        <v>1338579.9686350401</v>
+        <v>1017211.1517923099</v>
       </c>
       <c r="J12" s="21">
         <f>VLOOKUP(B12,RMS!B:E,4,FALSE)</f>
-        <v>1402757.94943333</v>
+        <v>1022997.9693</v>
       </c>
       <c r="K12" s="22">
         <f t="shared" si="1"/>
-        <v>1.0647649599704891</v>
+        <v>0.54150769009720534</v>
       </c>
       <c r="L12" s="22">
         <f t="shared" si="2"/>
-        <v>-3.3329939469695091E-5</v>
+        <v>0</v>
       </c>
       <c r="M12" s="32"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="68"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="12">
         <v>22</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="63"/>
+      <c r="D13" s="65"/>
       <c r="E13" s="15">
         <f>VLOOKUP(C13,RA!B16:D43,3,0)</f>
-        <v>615793.93969999999</v>
+        <v>861251.66709999996</v>
       </c>
       <c r="F13" s="25">
         <f>VLOOKUP(C13,RA!B17:I46,8,0)</f>
-        <v>61729.561399999999</v>
+        <v>97898.760699999999</v>
       </c>
       <c r="G13" s="16">
         <f t="shared" si="0"/>
-        <v>554064.37829999998</v>
+        <v>763352.90639999998</v>
       </c>
       <c r="H13" s="27">
         <f>RA!J17</f>
-        <v>10.024385986986699</v>
+        <v>11.367032940515999</v>
       </c>
       <c r="I13" s="20">
         <f>VLOOKUP(B13,RMS!B:D,3,FALSE)</f>
-        <v>615793.90527435904</v>
+        <v>861251.63360341894</v>
       </c>
       <c r="J13" s="21">
         <f>VLOOKUP(B13,RMS!B:E,4,FALSE)</f>
-        <v>554064.38024615403</v>
+        <v>763352.90708717902</v>
       </c>
       <c r="K13" s="22">
         <f t="shared" si="1"/>
-        <v>3.4425640944391489E-2</v>
+        <v>3.3496581017971039E-2</v>
       </c>
       <c r="L13" s="22">
         <f t="shared" si="2"/>
-        <v>-1.9461540505290031E-3</v>
+        <v>-6.8717903923243284E-4</v>
       </c>
       <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="68"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="12">
         <v>23</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="63"/>
+      <c r="D14" s="65"/>
       <c r="E14" s="15">
         <f>VLOOKUP(C14,RA!B18:D43,3,0)</f>
-        <v>2153027.1633000001</v>
+        <v>1381281.1779</v>
       </c>
       <c r="F14" s="25">
         <f>VLOOKUP(C14,RA!B18:I47,8,0)</f>
-        <v>298949.1581</v>
+        <v>199724.2206</v>
       </c>
       <c r="G14" s="16">
         <f t="shared" si="0"/>
-        <v>1854078.0052</v>
+        <v>1181556.9572999999</v>
       </c>
       <c r="H14" s="27">
         <f>RA!J18</f>
-        <v>13.885062074265401</v>
+        <v>14.4593456998847</v>
       </c>
       <c r="I14" s="20">
         <f>VLOOKUP(B14,RMS!B:D,3,FALSE)</f>
-        <v>2153027.1554666702</v>
+        <v>1381281.3614461501</v>
       </c>
       <c r="J14" s="21">
         <f>VLOOKUP(B14,RMS!B:E,4,FALSE)</f>
-        <v>1854078.03621197</v>
+        <v>1181556.86240342</v>
       </c>
       <c r="K14" s="22">
         <f t="shared" si="1"/>
-        <v>7.8333299607038498E-3</v>
+        <v>-0.1835461501032114</v>
       </c>
       <c r="L14" s="22">
         <f t="shared" si="2"/>
-        <v>-3.1011970015242696E-2</v>
+        <v>9.4896579859778285E-2</v>
       </c>
       <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="68"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="12">
         <v>24</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="63"/>
+      <c r="D15" s="65"/>
       <c r="E15" s="15">
         <f>VLOOKUP(C15,RA!B18:D44,3,0)</f>
-        <v>2340868.7022000002</v>
+        <v>516526.05330000003</v>
       </c>
       <c r="F15" s="25">
         <f>VLOOKUP(C15,RA!B19:I48,8,0)</f>
-        <v>-431774.60239999997</v>
+        <v>37148.273999999998</v>
       </c>
       <c r="G15" s="16">
         <f t="shared" si="0"/>
-        <v>2772643.3046000004</v>
+        <v>479377.77930000005</v>
       </c>
       <c r="H15" s="27">
         <f>RA!J19</f>
-        <v>-18.445058537209199</v>
+        <v>7.1919458394529698</v>
       </c>
       <c r="I15" s="20">
         <f>VLOOKUP(B15,RMS!B:D,3,FALSE)</f>
-        <v>2340868.6575717898</v>
+        <v>516526.02005299099</v>
       </c>
       <c r="J15" s="21">
         <f>VLOOKUP(B15,RMS!B:E,4,FALSE)</f>
-        <v>2772643.3030282101</v>
+        <v>479377.78046068398</v>
       </c>
       <c r="K15" s="22">
         <f t="shared" si="1"/>
-        <v>4.4628210365772247E-2</v>
+        <v>3.3247009036131203E-2</v>
       </c>
       <c r="L15" s="22">
         <f t="shared" si="2"/>
-        <v>1.5717903152108192E-3</v>
+        <v>-1.1606839252635837E-3</v>
       </c>
       <c r="M15" s="32"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="68"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="12">
         <v>25</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="63"/>
+      <c r="D16" s="65"/>
       <c r="E16" s="15">
         <f>VLOOKUP(C16,RA!B20:D45,3,0)</f>
-        <v>1025898.5806</v>
+        <v>1007799.272</v>
       </c>
       <c r="F16" s="25">
         <f>VLOOKUP(C16,RA!B20:I49,8,0)</f>
-        <v>123744.406</v>
+        <v>103881.2006</v>
       </c>
       <c r="G16" s="16">
         <f t="shared" si="0"/>
-        <v>902154.17460000003</v>
+        <v>903918.07140000002</v>
       </c>
       <c r="H16" s="27">
         <f>RA!J20</f>
-        <v>12.062050610073699</v>
+        <v>10.307727291154499</v>
       </c>
       <c r="I16" s="20">
         <f>VLOOKUP(B16,RMS!B:D,3,FALSE)</f>
-        <v>1025898.6316</v>
+        <v>1007799.3358999999</v>
       </c>
       <c r="J16" s="21">
         <f>VLOOKUP(B16,RMS!B:E,4,FALSE)</f>
-        <v>902154.17460000003</v>
+        <v>903918.07140000002</v>
       </c>
       <c r="K16" s="22">
         <f t="shared" si="1"/>
-        <v>-5.0999999977648258E-2</v>
+        <v>-6.389999995008111E-2</v>
       </c>
       <c r="L16" s="22">
         <f t="shared" si="2"/>
@@ -57185,533 +57289,533 @@
       <c r="M16" s="32"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="68"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="12">
         <v>26</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="63"/>
+      <c r="D17" s="65"/>
       <c r="E17" s="15">
         <f>VLOOKUP(C17,RA!B20:D46,3,0)</f>
-        <v>301592.92580000003</v>
+        <v>302612.46149999998</v>
       </c>
       <c r="F17" s="25">
         <f>VLOOKUP(C17,RA!B21:I50,8,0)</f>
-        <v>34150.525900000001</v>
+        <v>36163.828800000003</v>
       </c>
       <c r="G17" s="16">
         <f t="shared" si="0"/>
-        <v>267442.39990000002</v>
+        <v>266448.63269999996</v>
       </c>
       <c r="H17" s="27">
         <f>RA!J21</f>
-        <v>11.3233842635443</v>
+        <v>11.950541831867</v>
       </c>
       <c r="I17" s="20">
         <f>VLOOKUP(B17,RMS!B:D,3,FALSE)</f>
-        <v>301593.10463734198</v>
+        <v>302612.58570158802</v>
       </c>
       <c r="J17" s="21">
         <f>VLOOKUP(B17,RMS!B:E,4,FALSE)</f>
-        <v>267442.39985300699</v>
+        <v>266448.63255119103</v>
       </c>
       <c r="K17" s="22">
         <f t="shared" si="1"/>
-        <v>-0.17883734195493162</v>
+        <v>-0.12420158804161474</v>
       </c>
       <c r="L17" s="22">
         <f t="shared" si="2"/>
-        <v>4.6993023715913296E-5</v>
+        <v>1.4880893286317587E-4</v>
       </c>
       <c r="M17" s="32"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="68"/>
+      <c r="A18" s="70"/>
       <c r="B18" s="12">
         <v>27</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="63"/>
+      <c r="D18" s="65"/>
       <c r="E18" s="15">
         <f>VLOOKUP(C18,RA!B22:D47,3,0)</f>
-        <v>1609823.7392</v>
+        <v>2735835.4567999998</v>
       </c>
       <c r="F18" s="25">
         <f>VLOOKUP(C18,RA!B22:I51,8,0)</f>
-        <v>84388.463900000002</v>
+        <v>174346.6551</v>
       </c>
       <c r="G18" s="16">
         <f t="shared" si="0"/>
-        <v>1525435.2752999999</v>
+        <v>2561488.8016999997</v>
       </c>
       <c r="H18" s="27">
         <f>RA!J22</f>
-        <v>5.24209339476735</v>
+        <v>6.3727025200531102</v>
       </c>
       <c r="I18" s="20">
         <f>VLOOKUP(B18,RMS!B:D,3,FALSE)</f>
-        <v>1609824.73339402</v>
+        <v>2735836.35406239</v>
       </c>
       <c r="J18" s="21">
         <f>VLOOKUP(B18,RMS!B:E,4,FALSE)</f>
-        <v>1525435.27052137</v>
+        <v>2561488.7995880302</v>
       </c>
       <c r="K18" s="22">
         <f t="shared" si="1"/>
-        <v>-0.99419402005150914</v>
+        <v>-0.89726239023730159</v>
       </c>
       <c r="L18" s="22">
         <f t="shared" si="2"/>
-        <v>4.7786298673599958E-3</v>
+        <v>2.1119695156812668E-3</v>
       </c>
       <c r="M18" s="32"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="68"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="12">
         <v>29</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="63"/>
+      <c r="D19" s="65"/>
       <c r="E19" s="15">
         <f>VLOOKUP(C19,RA!B22:D48,3,0)</f>
-        <v>6909390.7180000003</v>
+        <v>2267265.8585999999</v>
       </c>
       <c r="F19" s="25">
         <f>VLOOKUP(C19,RA!B23:I52,8,0)</f>
-        <v>942185.03460000001</v>
+        <v>184734.11379999999</v>
       </c>
       <c r="G19" s="16">
         <f t="shared" si="0"/>
-        <v>5967205.6834000004</v>
+        <v>2082531.7448</v>
       </c>
       <c r="H19" s="27">
         <f>RA!J23</f>
-        <v>13.6362969334686</v>
+        <v>8.1478805451633391</v>
       </c>
       <c r="I19" s="20">
         <f>VLOOKUP(B19,RMS!B:D,3,FALSE)</f>
-        <v>6909392.1997222202</v>
+        <v>2267266.9663974401</v>
       </c>
       <c r="J19" s="21">
         <f>VLOOKUP(B19,RMS!B:E,4,FALSE)</f>
-        <v>5967205.7101401696</v>
+        <v>2082531.7668829099</v>
       </c>
       <c r="K19" s="22">
         <f t="shared" si="1"/>
-        <v>-1.4817222198471427</v>
+        <v>-1.1077974401414394</v>
       </c>
       <c r="L19" s="22">
         <f t="shared" si="2"/>
-        <v>-2.6740169152617455E-2</v>
+        <v>-2.2082909941673279E-2</v>
       </c>
       <c r="M19" s="32"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="68"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="12">
         <v>31</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="63"/>
+      <c r="D20" s="65"/>
       <c r="E20" s="15">
         <f>VLOOKUP(C20,RA!B24:D49,3,0)</f>
-        <v>273962.7022</v>
+        <v>298576.66940000001</v>
       </c>
       <c r="F20" s="25">
         <f>VLOOKUP(C20,RA!B24:I53,8,0)</f>
-        <v>42097.059200000003</v>
+        <v>44220.777800000003</v>
       </c>
       <c r="G20" s="16">
         <f t="shared" si="0"/>
-        <v>231865.64299999998</v>
+        <v>254355.8916</v>
       </c>
       <c r="H20" s="27">
         <f>RA!J24</f>
-        <v>15.3659818880265</v>
+        <v>14.8105268535761</v>
       </c>
       <c r="I20" s="20">
         <f>VLOOKUP(B20,RMS!B:D,3,FALSE)</f>
-        <v>273962.796968724</v>
+        <v>298576.70276413998</v>
       </c>
       <c r="J20" s="21">
         <f>VLOOKUP(B20,RMS!B:E,4,FALSE)</f>
-        <v>231865.637332668</v>
+        <v>254355.87121121501</v>
       </c>
       <c r="K20" s="22">
         <f t="shared" si="1"/>
-        <v>-9.4768723996821791E-2</v>
+        <v>-3.3364139962941408E-2</v>
       </c>
       <c r="L20" s="22">
         <f t="shared" si="2"/>
-        <v>5.6673319777473807E-3</v>
+        <v>2.0388784992974252E-2</v>
       </c>
       <c r="M20" s="32"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="68"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="12">
         <v>32</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="63"/>
+      <c r="D21" s="65"/>
       <c r="E21" s="15">
         <f>VLOOKUP(C21,RA!B24:D50,3,0)</f>
-        <v>254849.20319999999</v>
+        <v>326627.32189999998</v>
       </c>
       <c r="F21" s="25">
         <f>VLOOKUP(C21,RA!B25:I54,8,0)</f>
-        <v>17755.082600000002</v>
+        <v>13919.7011</v>
       </c>
       <c r="G21" s="16">
         <f t="shared" si="0"/>
-        <v>237094.12059999999</v>
+        <v>312707.62079999998</v>
       </c>
       <c r="H21" s="27">
         <f>RA!J25</f>
-        <v>6.9668974346630401</v>
+        <v>4.2616462759541101</v>
       </c>
       <c r="I21" s="20">
         <f>VLOOKUP(B21,RMS!B:D,3,FALSE)</f>
-        <v>254849.18037455599</v>
+        <v>326627.29618101497</v>
       </c>
       <c r="J21" s="21">
         <f>VLOOKUP(B21,RMS!B:E,4,FALSE)</f>
-        <v>237094.12234510301</v>
+        <v>312707.62001997302</v>
       </c>
       <c r="K21" s="22">
         <f t="shared" si="1"/>
-        <v>2.2825444000773132E-2</v>
+        <v>2.5718985009007156E-2</v>
       </c>
       <c r="L21" s="22">
         <f t="shared" si="2"/>
-        <v>-1.7451030144002289E-3</v>
+        <v>7.8002695227041841E-4</v>
       </c>
       <c r="M21" s="32"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="68"/>
+      <c r="A22" s="70"/>
       <c r="B22" s="12">
         <v>33</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="63"/>
+      <c r="D22" s="65"/>
       <c r="E22" s="15">
         <f>VLOOKUP(C22,RA!B26:D51,3,0)</f>
-        <v>603360.30740000005</v>
+        <v>706685.6361</v>
       </c>
       <c r="F22" s="25">
         <f>VLOOKUP(C22,RA!B26:I55,8,0)</f>
-        <v>118835.9039</v>
+        <v>120483.5028</v>
       </c>
       <c r="G22" s="16">
         <f t="shared" si="0"/>
-        <v>484524.40350000001</v>
+        <v>586202.13329999999</v>
       </c>
       <c r="H22" s="27">
         <f>RA!J26</f>
-        <v>19.695678095247501</v>
+        <v>17.049094625003899</v>
       </c>
       <c r="I22" s="20">
         <f>VLOOKUP(B22,RMS!B:D,3,FALSE)</f>
-        <v>603360.27921627695</v>
+        <v>706685.56793527002</v>
       </c>
       <c r="J22" s="21">
         <f>VLOOKUP(B22,RMS!B:E,4,FALSE)</f>
-        <v>484524.39967677899</v>
+        <v>586202.15002995299</v>
       </c>
       <c r="K22" s="22">
         <f t="shared" si="1"/>
-        <v>2.8183723101392388E-2</v>
+        <v>6.8164729978889227E-2</v>
       </c>
       <c r="L22" s="22">
         <f t="shared" si="2"/>
-        <v>3.8232210208661854E-3</v>
+        <v>-1.6729953000321984E-2</v>
       </c>
       <c r="M22" s="32"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="68"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="12">
         <v>34</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="63"/>
+      <c r="D23" s="65"/>
       <c r="E23" s="15">
         <f>VLOOKUP(C23,RA!B26:D52,3,0)</f>
-        <v>231848.80420000001</v>
+        <v>168032.9656</v>
       </c>
       <c r="F23" s="25">
         <f>VLOOKUP(C23,RA!B27:I56,8,0)</f>
-        <v>59429.484900000003</v>
+        <v>40809.408100000001</v>
       </c>
       <c r="G23" s="16">
         <f t="shared" si="0"/>
-        <v>172419.3193</v>
+        <v>127223.5575</v>
       </c>
       <c r="H23" s="27">
         <f>RA!J27</f>
-        <v>25.632862375574</v>
+        <v>24.2865487461229</v>
       </c>
       <c r="I23" s="20">
         <f>VLOOKUP(B23,RMS!B:D,3,FALSE)</f>
-        <v>231848.630659216</v>
+        <v>168032.767786385</v>
       </c>
       <c r="J23" s="21">
         <f>VLOOKUP(B23,RMS!B:E,4,FALSE)</f>
-        <v>172419.313790724</v>
+        <v>127223.566853575</v>
       </c>
       <c r="K23" s="22">
         <f t="shared" si="1"/>
-        <v>0.17354078401695006</v>
+        <v>0.19781361499917693</v>
       </c>
       <c r="L23" s="22">
         <f t="shared" si="2"/>
-        <v>5.5092760012485087E-3</v>
+        <v>-9.3535750056616962E-3</v>
       </c>
       <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="68"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="12">
         <v>35</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="63"/>
+      <c r="D24" s="65"/>
       <c r="E24" s="15">
         <f>VLOOKUP(C24,RA!B28:D53,3,0)</f>
-        <v>850556.63150000002</v>
+        <v>993316.65330000001</v>
       </c>
       <c r="F24" s="25">
         <f>VLOOKUP(C24,RA!B28:I57,8,0)</f>
-        <v>22734.489699999998</v>
+        <v>27017.872299999999</v>
       </c>
       <c r="G24" s="16">
         <f t="shared" si="0"/>
-        <v>827822.14179999998</v>
+        <v>966298.78099999996</v>
       </c>
       <c r="H24" s="27">
         <f>RA!J28</f>
-        <v>2.6728954731569798</v>
+        <v>2.7199657038106801</v>
       </c>
       <c r="I24" s="20">
         <f>VLOOKUP(B24,RMS!B:D,3,FALSE)</f>
-        <v>850556.63184336305</v>
+        <v>993316.65350973501</v>
       </c>
       <c r="J24" s="21">
         <f>VLOOKUP(B24,RMS!B:E,4,FALSE)</f>
-        <v>827822.119206195</v>
+        <v>966298.76953982306</v>
       </c>
       <c r="K24" s="22">
         <f t="shared" si="1"/>
-        <v>-3.4336303360760212E-4</v>
+        <v>-2.0973500795662403E-4</v>
       </c>
       <c r="L24" s="22">
         <f t="shared" si="2"/>
-        <v>2.2593804984353483E-2</v>
+        <v>1.1460176901891828E-2</v>
       </c>
       <c r="M24" s="32"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="68"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="12">
         <v>36</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="63"/>
+      <c r="D25" s="65"/>
       <c r="E25" s="15">
         <f>VLOOKUP(C25,RA!B28:D54,3,0)</f>
-        <v>691969.43460000004</v>
+        <v>635152.4743</v>
       </c>
       <c r="F25" s="25">
         <f>VLOOKUP(C25,RA!B29:I58,8,0)</f>
-        <v>103639.3229</v>
+        <v>96800.733800000002</v>
       </c>
       <c r="G25" s="16">
         <f t="shared" si="0"/>
-        <v>588330.11170000001</v>
+        <v>538351.74049999996</v>
       </c>
       <c r="H25" s="27">
         <f>RA!J29</f>
-        <v>14.977442314328499</v>
+        <v>15.240550531852</v>
       </c>
       <c r="I25" s="20">
         <f>VLOOKUP(B25,RMS!B:D,3,FALSE)</f>
-        <v>691970.98678230098</v>
+        <v>635152.62298849598</v>
       </c>
       <c r="J25" s="21">
         <f>VLOOKUP(B25,RMS!B:E,4,FALSE)</f>
-        <v>588330.08744496899</v>
+        <v>538351.726601767</v>
       </c>
       <c r="K25" s="22">
         <f t="shared" si="1"/>
-        <v>-1.5521823009476066</v>
+        <v>-0.14868849597405642</v>
       </c>
       <c r="L25" s="22">
         <f t="shared" si="2"/>
-        <v>2.4255031021311879E-2</v>
+        <v>1.3898232951760292E-2</v>
       </c>
       <c r="M25" s="32"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="68"/>
+      <c r="A26" s="70"/>
       <c r="B26" s="12">
         <v>37</v>
       </c>
-      <c r="C26" s="63" t="s">
+      <c r="C26" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="63"/>
+      <c r="D26" s="65"/>
       <c r="E26" s="15">
         <f>VLOOKUP(C26,RA!B30:D55,3,0)</f>
-        <v>1105783.9046</v>
+        <v>1426558.2283000001</v>
       </c>
       <c r="F26" s="25">
         <f>VLOOKUP(C26,RA!B30:I59,8,0)</f>
-        <v>121861.355</v>
+        <v>71893.589800000002</v>
       </c>
       <c r="G26" s="16">
         <f t="shared" si="0"/>
-        <v>983922.54960000003</v>
+        <v>1354664.6385000001</v>
       </c>
       <c r="H26" s="27">
         <f>RA!J30</f>
-        <v>11.020358904941901</v>
+        <v>5.03965336806995</v>
       </c>
       <c r="I26" s="20">
         <f>VLOOKUP(B26,RMS!B:D,3,FALSE)</f>
-        <v>1105783.9094902701</v>
+        <v>1426558.2196831901</v>
       </c>
       <c r="J26" s="21">
         <f>VLOOKUP(B26,RMS!B:E,4,FALSE)</f>
-        <v>983922.55344294198</v>
+        <v>1354664.6183696</v>
       </c>
       <c r="K26" s="22">
         <f t="shared" si="1"/>
-        <v>-4.8902700655162334E-3</v>
+        <v>8.6168099660426378E-3</v>
       </c>
       <c r="L26" s="22">
         <f t="shared" si="2"/>
-        <v>-3.8429419510066509E-3</v>
+        <v>2.0130400080233812E-2</v>
       </c>
       <c r="M26" s="32"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="68"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="12">
         <v>38</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="63"/>
+      <c r="D27" s="65"/>
       <c r="E27" s="15">
         <f>VLOOKUP(C27,RA!B30:D56,3,0)</f>
-        <v>1937494.7534</v>
+        <v>1537485.3403</v>
       </c>
       <c r="F27" s="25">
         <f>VLOOKUP(C27,RA!B31:I60,8,0)</f>
-        <v>-55827.511700000003</v>
+        <v>-11929.3711</v>
       </c>
       <c r="G27" s="16">
         <f t="shared" si="0"/>
-        <v>1993322.2651</v>
+        <v>1549414.7114000001</v>
       </c>
       <c r="H27" s="27">
         <f>RA!J31</f>
-        <v>-2.8814277613929802</v>
+        <v>-0.77590145332197402</v>
       </c>
       <c r="I27" s="20">
         <f>VLOOKUP(B27,RMS!B:D,3,FALSE)</f>
-        <v>1937494.85252124</v>
+        <v>1537485.2216451301</v>
       </c>
       <c r="J27" s="21">
         <f>VLOOKUP(B27,RMS!B:E,4,FALSE)</f>
-        <v>1993321.3810300899</v>
+        <v>1549414.67979735</v>
       </c>
       <c r="K27" s="22">
         <f t="shared" si="1"/>
-        <v>-9.9121239967644215E-2</v>
+        <v>0.11865486996248364</v>
       </c>
       <c r="L27" s="22">
         <f t="shared" si="2"/>
-        <v>0.88406991004012525</v>
+        <v>3.1602650182321668E-2</v>
       </c>
       <c r="M27" s="32"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="68"/>
+      <c r="A28" s="70"/>
       <c r="B28" s="12">
         <v>39</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="63"/>
+      <c r="D28" s="65"/>
       <c r="E28" s="15">
         <f>VLOOKUP(C28,RA!B32:D57,3,0)</f>
-        <v>128218.34759999999</v>
+        <v>227743.375</v>
       </c>
       <c r="F28" s="25">
         <f>VLOOKUP(C28,RA!B32:I61,8,0)</f>
-        <v>33620.506800000003</v>
+        <v>53147.137300000002</v>
       </c>
       <c r="G28" s="16">
         <f t="shared" si="0"/>
-        <v>94597.840799999991</v>
+        <v>174596.2377</v>
       </c>
       <c r="H28" s="27">
         <f>RA!J32</f>
-        <v>26.221291593060599</v>
+        <v>23.336414198656701</v>
       </c>
       <c r="I28" s="20">
         <f>VLOOKUP(B28,RMS!B:D,3,FALSE)</f>
-        <v>128218.268022381</v>
+        <v>227743.42364166901</v>
       </c>
       <c r="J28" s="21">
         <f>VLOOKUP(B28,RMS!B:E,4,FALSE)</f>
-        <v>94597.822198162597</v>
+        <v>174596.22775389801</v>
       </c>
       <c r="K28" s="22">
         <f t="shared" si="1"/>
-        <v>7.9577618991606869E-2</v>
+        <v>-4.8641669010976329E-2</v>
       </c>
       <c r="L28" s="22">
         <f t="shared" si="2"/>
-        <v>1.8601837393362075E-2</v>
+        <v>9.9461019854061306E-3</v>
       </c>
       <c r="M28" s="32"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="68"/>
+      <c r="A29" s="70"/>
       <c r="B29" s="12">
         <v>40</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="63"/>
+      <c r="D29" s="65"/>
       <c r="E29" s="15">
         <f>VLOOKUP(C29,RA!B32:D58,3,0)</f>
-        <v>0</v>
+        <v>8.2905999999999995</v>
       </c>
       <c r="F29" s="25">
         <f>VLOOKUP(C29,RA!B33:I62,8,0)</f>
@@ -57719,7 +57823,7 @@
       </c>
       <c r="G29" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.2905999999999995</v>
       </c>
       <c r="H29" s="27">
         <f>RA!J33</f>
@@ -57727,11 +57831,11 @@
       </c>
       <c r="I29" s="20">
         <f>VLOOKUP(B29,RMS!B:D,3,FALSE)</f>
-        <v>0</v>
+        <v>8.2905999999999995</v>
       </c>
       <c r="J29" s="21">
         <f>VLOOKUP(B29,RMS!B:E,4,FALSE)</f>
-        <v>0</v>
+        <v>8.2905999999999995</v>
       </c>
       <c r="K29" s="22">
         <f t="shared" si="1"/>
@@ -57743,123 +57847,123 @@
       </c>
       <c r="M29" s="32"/>
     </row>
-    <row r="30" spans="1:13" ht="12" thickBot="1">
-      <c r="A30" s="68"/>
+    <row r="30" spans="1:13">
+      <c r="A30" s="70"/>
       <c r="B30" s="12">
         <v>42</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="63"/>
+      <c r="D30" s="65"/>
       <c r="E30" s="15">
         <f>VLOOKUP(C30,RA!B34:D60,3,0)</f>
-        <v>161474.7102</v>
+        <v>217315.31280000001</v>
       </c>
       <c r="F30" s="25">
         <f>VLOOKUP(C30,RA!B34:I64,8,0)</f>
-        <v>20131.282800000001</v>
+        <v>17439.018899999999</v>
       </c>
       <c r="G30" s="16">
         <f t="shared" si="0"/>
-        <v>141343.42739999999</v>
+        <v>199876.29390000002</v>
       </c>
       <c r="H30" s="27">
         <f>RA!J34</f>
-        <v>12.4671428578913</v>
+        <v>8.0247538359386201</v>
       </c>
       <c r="I30" s="20">
         <f>VLOOKUP(B30,RMS!B:D,3,FALSE)</f>
-        <v>161474.71030000001</v>
+        <v>217315.3112</v>
       </c>
       <c r="J30" s="21">
         <f>VLOOKUP(B30,RMS!B:E,4,FALSE)</f>
-        <v>141343.43119999999</v>
+        <v>199876.3015</v>
       </c>
       <c r="K30" s="22">
         <f t="shared" si="1"/>
-        <v>-1.0000000474974513E-4</v>
+        <v>1.6000000177882612E-3</v>
       </c>
       <c r="L30" s="22">
         <f t="shared" si="2"/>
-        <v>-3.8000000058673322E-3</v>
+        <v>-7.599999982630834E-3</v>
       </c>
       <c r="M30" s="32"/>
     </row>
-    <row r="31" spans="1:13" s="35" customFormat="1" ht="12" thickBot="1">
-      <c r="A31" s="68"/>
+    <row r="31" spans="1:13" s="36" customFormat="1" ht="12" thickBot="1">
+      <c r="A31" s="70"/>
       <c r="B31" s="12">
-        <v>70</v>
-      </c>
-      <c r="C31" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="70"/>
+        <v>43</v>
+      </c>
+      <c r="C31" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="63"/>
       <c r="E31" s="15">
-        <f>VLOOKUP(C31,RA!B34:D61,3,0)</f>
-        <v>72582.929999999993</v>
+        <f>VLOOKUP(C31,RA!B35:D61,3,0)</f>
+        <v>6393.5562</v>
       </c>
       <c r="F31" s="25">
-        <f>VLOOKUP(C31,RA!B34:I65,8,0)</f>
-        <v>376.67</v>
+        <f>VLOOKUP(C31,RA!B35:I65,8,0)</f>
+        <v>212.55549999999999</v>
       </c>
       <c r="G31" s="16">
         <f t="shared" si="0"/>
-        <v>72206.259999999995</v>
+        <v>6181.0006999999996</v>
       </c>
       <c r="H31" s="27">
-        <f>RA!J34</f>
-        <v>12.4671428578913</v>
+        <f>RA!J35</f>
+        <v>3.3245269666981301</v>
       </c>
       <c r="I31" s="20">
         <f>VLOOKUP(B31,RMS!B:D,3,FALSE)</f>
-        <v>72582.929999999993</v>
+        <v>6393.5541000000003</v>
       </c>
       <c r="J31" s="21">
         <f>VLOOKUP(B31,RMS!B:E,4,FALSE)</f>
-        <v>72206.259999999995</v>
+        <v>6181.0010000000002</v>
       </c>
       <c r="K31" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0999999997002305E-3</v>
       </c>
       <c r="L31" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-3.0000000060681487E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="68"/>
+    <row r="32" spans="1:13" s="35" customFormat="1" ht="12" thickBot="1">
+      <c r="A32" s="70"/>
       <c r="B32" s="12">
-        <v>71</v>
-      </c>
-      <c r="C32" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="63"/>
+        <v>70</v>
+      </c>
+      <c r="C32" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="72"/>
       <c r="E32" s="15">
         <f>VLOOKUP(C32,RA!B34:D61,3,0)</f>
-        <v>109345.32</v>
+        <v>57870.17</v>
       </c>
       <c r="F32" s="25">
         <f>VLOOKUP(C32,RA!B34:I65,8,0)</f>
-        <v>-9475.4699999999993</v>
+        <v>62.41</v>
       </c>
       <c r="G32" s="16">
         <f t="shared" si="0"/>
-        <v>118820.79000000001</v>
+        <v>57807.759999999995</v>
       </c>
       <c r="H32" s="27">
         <f>RA!J34</f>
-        <v>12.4671428578913</v>
+        <v>8.0247538359386201</v>
       </c>
       <c r="I32" s="20">
         <f>VLOOKUP(B32,RMS!B:D,3,FALSE)</f>
-        <v>109345.32</v>
+        <v>57870.17</v>
       </c>
       <c r="J32" s="21">
         <f>VLOOKUP(B32,RMS!B:E,4,FALSE)</f>
-        <v>118820.79</v>
+        <v>57807.76</v>
       </c>
       <c r="K32" s="22">
         <f t="shared" si="1"/>
@@ -57869,40 +57973,39 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M32" s="32"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="68"/>
+      <c r="A33" s="70"/>
       <c r="B33" s="12">
-        <v>72</v>
-      </c>
-      <c r="C33" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="63"/>
+        <v>71</v>
+      </c>
+      <c r="C33" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="65"/>
       <c r="E33" s="15">
-        <f>VLOOKUP(C33,RA!B34:D62,3,0)</f>
-        <v>176146.26</v>
+        <f>VLOOKUP(C33,RA!B34:D61,3,0)</f>
+        <v>106335.11</v>
       </c>
       <c r="F33" s="25">
-        <f>VLOOKUP(C33,RA!B34:I66,8,0)</f>
-        <v>-1657.98</v>
+        <f>VLOOKUP(C33,RA!B34:I65,8,0)</f>
+        <v>-8079.05</v>
       </c>
       <c r="G33" s="16">
         <f t="shared" si="0"/>
-        <v>177804.24000000002</v>
+        <v>114414.16</v>
       </c>
       <c r="H33" s="27">
-        <f>RA!J35</f>
-        <v>1.1642176891248399</v>
+        <f>RA!J34</f>
+        <v>8.0247538359386201</v>
       </c>
       <c r="I33" s="20">
         <f>VLOOKUP(B33,RMS!B:D,3,FALSE)</f>
-        <v>176146.26</v>
+        <v>106335.11</v>
       </c>
       <c r="J33" s="21">
         <f>VLOOKUP(B33,RMS!B:E,4,FALSE)</f>
-        <v>177804.24</v>
+        <v>114414.16</v>
       </c>
       <c r="K33" s="22">
         <f t="shared" si="1"/>
@@ -57915,37 +58018,37 @@
       <c r="M33" s="32"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="68"/>
+      <c r="A34" s="70"/>
       <c r="B34" s="12">
-        <v>73</v>
-      </c>
-      <c r="C34" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="63"/>
+        <v>72</v>
+      </c>
+      <c r="C34" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="65"/>
       <c r="E34" s="15">
-        <f>VLOOKUP(C34,RA!B34:D63,3,0)</f>
-        <v>118365.07</v>
+        <f>VLOOKUP(C34,RA!B34:D62,3,0)</f>
+        <v>318512.09999999998</v>
       </c>
       <c r="F34" s="25">
-        <f>VLOOKUP(C34,RA!B34:I67,8,0)</f>
-        <v>-11048.54</v>
+        <f>VLOOKUP(C34,RA!B34:I66,8,0)</f>
+        <v>-5597.41</v>
       </c>
       <c r="G34" s="16">
         <f t="shared" si="0"/>
-        <v>129413.61000000002</v>
+        <v>324109.50999999995</v>
       </c>
       <c r="H34" s="27">
-        <f>RA!J34</f>
-        <v>12.4671428578913</v>
+        <f>RA!J35</f>
+        <v>3.3245269666981301</v>
       </c>
       <c r="I34" s="20">
         <f>VLOOKUP(B34,RMS!B:D,3,FALSE)</f>
-        <v>118365.07</v>
+        <v>318512.09999999998</v>
       </c>
       <c r="J34" s="21">
         <f>VLOOKUP(B34,RMS!B:E,4,FALSE)</f>
-        <v>129413.61</v>
+        <v>324109.51</v>
       </c>
       <c r="K34" s="22">
         <f t="shared" si="1"/>
@@ -57957,38 +58060,38 @@
       </c>
       <c r="M34" s="32"/>
     </row>
-    <row r="35" spans="1:13" s="35" customFormat="1">
-      <c r="A35" s="68"/>
+    <row r="35" spans="1:13">
+      <c r="A35" s="70"/>
       <c r="B35" s="12">
-        <v>74</v>
-      </c>
-      <c r="C35" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="63"/>
+        <v>73</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="65"/>
       <c r="E35" s="15">
-        <f>VLOOKUP(C35,RA!B35:D64,3,0)</f>
-        <v>0.49</v>
+        <f>VLOOKUP(C35,RA!B34:D63,3,0)</f>
+        <v>122942.88</v>
       </c>
       <c r="F35" s="25">
-        <f>VLOOKUP(C35,RA!B35:I68,8,0)</f>
-        <v>-2717.55</v>
+        <f>VLOOKUP(C35,RA!B34:I67,8,0)</f>
+        <v>-10440.82</v>
       </c>
       <c r="G35" s="16">
         <f t="shared" si="0"/>
-        <v>2718.04</v>
+        <v>133383.70000000001</v>
       </c>
       <c r="H35" s="27">
-        <f>RA!J35</f>
-        <v>1.1642176891248399</v>
+        <f>RA!J34</f>
+        <v>8.0247538359386201</v>
       </c>
       <c r="I35" s="20">
         <f>VLOOKUP(B35,RMS!B:D,3,FALSE)</f>
-        <v>0.49</v>
+        <v>122942.88</v>
       </c>
       <c r="J35" s="21">
         <f>VLOOKUP(B35,RMS!B:E,4,FALSE)</f>
-        <v>2718.04</v>
+        <v>133383.70000000001</v>
       </c>
       <c r="K35" s="22">
         <f t="shared" si="1"/>
@@ -57998,168 +58101,168 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="M35" s="32"/>
     </row>
-    <row r="36" spans="1:13" ht="11.25" customHeight="1">
-      <c r="A36" s="68"/>
+    <row r="36" spans="1:13" s="35" customFormat="1">
+      <c r="A36" s="70"/>
       <c r="B36" s="12">
-        <v>75</v>
-      </c>
-      <c r="C36" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="63"/>
+        <v>74</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="65"/>
       <c r="E36" s="15">
-        <f>VLOOKUP(C36,RA!B8:D64,3,0)</f>
-        <v>117956.41009999999</v>
+        <f>VLOOKUP(C36,RA!B35:D64,3,0)</f>
+        <v>1.22</v>
       </c>
       <c r="F36" s="25">
-        <f>VLOOKUP(C36,RA!B8:I68,8,0)</f>
-        <v>9643.7060999999994</v>
+        <f>VLOOKUP(C36,RA!B35:I68,8,0)</f>
+        <v>-7943.23</v>
       </c>
       <c r="G36" s="16">
         <f t="shared" si="0"/>
-        <v>108312.704</v>
+        <v>7944.45</v>
       </c>
       <c r="H36" s="27">
         <f>RA!J35</f>
-        <v>1.1642176891248399</v>
+        <v>3.3245269666981301</v>
       </c>
       <c r="I36" s="20">
         <f>VLOOKUP(B36,RMS!B:D,3,FALSE)</f>
-        <v>117956.41025641</v>
+        <v>1.22</v>
       </c>
       <c r="J36" s="21">
         <f>VLOOKUP(B36,RMS!B:E,4,FALSE)</f>
-        <v>108312.70512820499</v>
+        <v>7944.45</v>
       </c>
       <c r="K36" s="22">
         <f t="shared" si="1"/>
-        <v>-1.5641000936739147E-4</v>
+        <v>0</v>
       </c>
       <c r="L36" s="22">
         <f t="shared" si="2"/>
-        <v>-1.1282049963483587E-3</v>
-      </c>
-      <c r="M36" s="32"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="68"/>
+    <row r="37" spans="1:13" ht="11.25" customHeight="1">
+      <c r="A37" s="70"/>
       <c r="B37" s="12">
-        <v>76</v>
-      </c>
-      <c r="C37" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="63"/>
+        <v>75</v>
+      </c>
+      <c r="C37" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="65"/>
       <c r="E37" s="15">
-        <f>VLOOKUP(C37,RA!B8:D65,3,0)</f>
-        <v>502550.76439999999</v>
+        <f>VLOOKUP(C37,RA!B8:D64,3,0)</f>
+        <v>33008.546799999996</v>
       </c>
       <c r="F37" s="25">
-        <f>VLOOKUP(C37,RA!B8:I69,8,0)</f>
-        <v>33679.054499999998</v>
+        <f>VLOOKUP(C37,RA!B8:I68,8,0)</f>
+        <v>1741.4918</v>
       </c>
       <c r="G37" s="16">
         <f t="shared" si="0"/>
-        <v>468871.70990000002</v>
+        <v>31267.054999999997</v>
       </c>
       <c r="H37" s="27">
-        <f>RA!J36</f>
-        <v>0.51895121897118202</v>
+        <f>RA!J35</f>
+        <v>3.3245269666981301</v>
       </c>
       <c r="I37" s="20">
         <f>VLOOKUP(B37,RMS!B:D,3,FALSE)</f>
-        <v>502550.75888034201</v>
+        <v>33008.547008547001</v>
       </c>
       <c r="J37" s="21">
         <f>VLOOKUP(B37,RMS!B:E,4,FALSE)</f>
-        <v>468871.70553162397</v>
+        <v>31267.055555555598</v>
       </c>
       <c r="K37" s="22">
         <f t="shared" si="1"/>
-        <v>5.5196579778566957E-3</v>
+        <v>-2.0854700414929539E-4</v>
       </c>
       <c r="L37" s="22">
         <f t="shared" si="2"/>
-        <v>4.3683760450221598E-3</v>
+        <v>-5.5555560174980201E-4</v>
       </c>
       <c r="M37" s="32"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="68"/>
+      <c r="A38" s="70"/>
       <c r="B38" s="12">
-        <v>77</v>
-      </c>
-      <c r="C38" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="63"/>
+        <v>76</v>
+      </c>
+      <c r="C38" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="65"/>
       <c r="E38" s="15">
-        <f>VLOOKUP(C38,RA!B9:D66,3,0)</f>
-        <v>75362.45</v>
+        <f>VLOOKUP(C38,RA!B8:D65,3,0)</f>
+        <v>469741.14230000001</v>
       </c>
       <c r="F38" s="25">
-        <f>VLOOKUP(C38,RA!B9:I70,8,0)</f>
-        <v>-14510.52</v>
+        <f>VLOOKUP(C38,RA!B8:I69,8,0)</f>
+        <v>22550.2703</v>
       </c>
       <c r="G38" s="16">
         <f t="shared" si="0"/>
-        <v>89872.97</v>
+        <v>447190.87200000003</v>
       </c>
       <c r="H38" s="27">
-        <f>RA!J37</f>
-        <v>-8.6656383647695208</v>
+        <f>RA!J36</f>
+        <v>0.10784485340202001</v>
       </c>
       <c r="I38" s="20">
         <f>VLOOKUP(B38,RMS!B:D,3,FALSE)</f>
-        <v>75362.45</v>
+        <v>469741.13965982897</v>
       </c>
       <c r="J38" s="21">
         <f>VLOOKUP(B38,RMS!B:E,4,FALSE)</f>
-        <v>89872.97</v>
+        <v>447190.87065897399</v>
       </c>
       <c r="K38" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.6401710347272456E-3</v>
       </c>
       <c r="L38" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.3410260435193777E-3</v>
       </c>
       <c r="M38" s="32"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="68"/>
+      <c r="A39" s="70"/>
       <c r="B39" s="12">
-        <v>78</v>
-      </c>
-      <c r="C39" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="63"/>
+        <v>77</v>
+      </c>
+      <c r="C39" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="65"/>
       <c r="E39" s="15">
-        <f>VLOOKUP(C39,RA!B10:D67,3,0)</f>
-        <v>47512.02</v>
+        <f>VLOOKUP(C39,RA!B9:D66,3,0)</f>
+        <v>58762.42</v>
       </c>
       <c r="F39" s="25">
-        <f>VLOOKUP(C39,RA!B10:I71,8,0)</f>
-        <v>6305.83</v>
+        <f>VLOOKUP(C39,RA!B9:I70,8,0)</f>
+        <v>-5063.26</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="0"/>
-        <v>41206.189999999995</v>
+        <v>63825.68</v>
       </c>
       <c r="H39" s="27">
-        <f>RA!J38</f>
-        <v>-0.94125188919708003</v>
+        <f>RA!J37</f>
+        <v>-7.5977257182505404</v>
       </c>
       <c r="I39" s="20">
         <f>VLOOKUP(B39,RMS!B:D,3,FALSE)</f>
-        <v>47512.02</v>
+        <v>58762.42</v>
       </c>
       <c r="J39" s="21">
         <f>VLOOKUP(B39,RMS!B:E,4,FALSE)</f>
-        <v>41206.19</v>
+        <v>63825.68</v>
       </c>
       <c r="K39" s="22">
         <f t="shared" si="1"/>
@@ -58171,38 +58274,38 @@
       </c>
       <c r="M39" s="32"/>
     </row>
-    <row r="40" spans="1:13" s="36" customFormat="1">
-      <c r="A40" s="68"/>
+    <row r="40" spans="1:13">
+      <c r="A40" s="70"/>
       <c r="B40" s="12">
-        <v>9101</v>
-      </c>
-      <c r="C40" s="64" t="s">
-        <v>71</v>
+        <v>78</v>
+      </c>
+      <c r="C40" s="65" t="s">
+        <v>39</v>
       </c>
       <c r="D40" s="65"/>
       <c r="E40" s="15">
-        <f>VLOOKUP(C40,RA!B11:D68,3,0)</f>
-        <v>0</v>
+        <f>VLOOKUP(C40,RA!B10:D67,3,0)</f>
+        <v>25055.59</v>
       </c>
       <c r="F40" s="25">
-        <f>VLOOKUP(C40,RA!B11:I72,8,0)</f>
-        <v>0</v>
+        <f>VLOOKUP(C40,RA!B10:I71,8,0)</f>
+        <v>3490.87</v>
       </c>
       <c r="G40" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21564.720000000001</v>
       </c>
       <c r="H40" s="27">
-        <f>RA!J39</f>
-        <v>-9.3342909356620201</v>
+        <f>RA!J38</f>
+        <v>-1.75736180823272</v>
       </c>
       <c r="I40" s="20">
         <f>VLOOKUP(B40,RMS!B:D,3,FALSE)</f>
-        <v>0</v>
+        <v>25055.59</v>
       </c>
       <c r="J40" s="21">
         <f>VLOOKUP(B40,RMS!B:E,4,FALSE)</f>
-        <v>0</v>
+        <v>21564.720000000001</v>
       </c>
       <c r="K40" s="22">
         <f t="shared" si="1"/>
@@ -58212,49 +58315,92 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="M40" s="32"/>
     </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="68"/>
+    <row r="41" spans="1:13" s="36" customFormat="1">
+      <c r="A41" s="70"/>
       <c r="B41" s="12">
-        <v>99</v>
-      </c>
-      <c r="C41" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="63"/>
+        <v>9101</v>
+      </c>
+      <c r="C41" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="67"/>
       <c r="E41" s="15">
-        <f>VLOOKUP(C41,RA!B8:D68,3,0)</f>
-        <v>11789.516600000001</v>
+        <f>VLOOKUP(C41,RA!B11:D68,3,0)</f>
+        <v>0</v>
       </c>
       <c r="F41" s="25">
-        <f>VLOOKUP(C41,RA!B8:I72,8,0)</f>
-        <v>1456.482</v>
+        <f>VLOOKUP(C41,RA!B11:I72,8,0)</f>
+        <v>0</v>
       </c>
       <c r="G41" s="16">
         <f t="shared" si="0"/>
-        <v>10333.034600000001</v>
+        <v>0</v>
       </c>
       <c r="H41" s="27">
         <f>RA!J39</f>
-        <v>-9.3342909356620201</v>
+        <v>-8.4924153395462998</v>
       </c>
       <c r="I41" s="20">
         <f>VLOOKUP(B41,RMS!B:D,3,FALSE)</f>
-        <v>11789.5166780123</v>
+        <v>0</v>
       </c>
       <c r="J41" s="21">
         <f>VLOOKUP(B41,RMS!B:E,4,FALSE)</f>
-        <v>10333.034445200799</v>
+        <v>0</v>
       </c>
       <c r="K41" s="22">
         <f t="shared" si="1"/>
-        <v>-7.8012299127294682E-5</v>
+        <v>0</v>
       </c>
       <c r="L41" s="22">
         <f t="shared" si="2"/>
-        <v>1.5479920148209203E-4</v>
-      </c>
-      <c r="M41" s="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="70"/>
+      <c r="B42" s="12">
+        <v>99</v>
+      </c>
+      <c r="C42" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="65"/>
+      <c r="E42" s="15">
+        <f>VLOOKUP(C42,RA!B8:D68,3,0)</f>
+        <v>11417.873100000001</v>
+      </c>
+      <c r="F42" s="25">
+        <f>VLOOKUP(C42,RA!B8:I72,8,0)</f>
+        <v>966.76390000000004</v>
+      </c>
+      <c r="G42" s="16">
+        <f t="shared" si="0"/>
+        <v>10451.109200000001</v>
+      </c>
+      <c r="H42" s="27">
+        <f>RA!J39</f>
+        <v>-8.4924153395462998</v>
+      </c>
+      <c r="I42" s="20">
+        <f>VLOOKUP(B42,RMS!B:D,3,FALSE)</f>
+        <v>11417.8730807049</v>
+      </c>
+      <c r="J42" s="21">
+        <f>VLOOKUP(B42,RMS!B:E,4,FALSE)</f>
+        <v>10451.108917631</v>
+      </c>
+      <c r="K42" s="22">
+        <f t="shared" si="1"/>
+        <v>1.9295101083116606E-5</v>
+      </c>
+      <c r="L42" s="22">
+        <f t="shared" si="2"/>
+        <v>2.8236900107003748E-4</v>
+      </c>
+      <c r="M42" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -58264,27 +58410,27 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:A41"/>
+    <mergeCell ref="A4:A42"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C35:D35"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C41:D41"/>
     <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C40:D40"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C22:D22"/>
@@ -58328,8 +58474,7 @@
     <col min="12" max="12" width="12" style="41" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="41" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="15.85546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" style="41" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.5703125" style="41" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" style="41" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="9.140625" style="41"/>
     <col min="21" max="21" width="12" style="41" bestFit="1" customWidth="1"/>
@@ -58338,107 +58483,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="12.75">
-      <c r="A1" s="71"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
+      <c r="A1" s="73"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
       <c r="V1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="73"/>
+      <c r="W1" s="75"/>
     </row>
     <row r="2" spans="1:23" ht="12.75">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
       <c r="V2" s="42"/>
-      <c r="W2" s="73"/>
+      <c r="W2" s="75"/>
     </row>
     <row r="3" spans="1:23" ht="23.25" thickBot="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
       <c r="V3" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="73"/>
+      <c r="W3" s="75"/>
     </row>
     <row r="4" spans="1:23" ht="12.75" thickTop="1" thickBot="1">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="W4" s="73"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="W4" s="75"/>
     </row>
     <row r="5" spans="1:23" ht="22.5" thickTop="1" thickBot="1">
       <c r="A5" s="44"/>
@@ -58448,10 +58593,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="47" t="s">
         <v>74</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>75</v>
       </c>
       <c r="G5" s="47" t="s">
         <v>47</v>
@@ -58481,10 +58626,10 @@
         <v>53</v>
       </c>
       <c r="P5" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="47" t="s">
         <v>76</v>
-      </c>
-      <c r="Q5" s="47" t="s">
-        <v>77</v>
       </c>
       <c r="R5" s="47" t="s">
         <v>54</v>
@@ -58503,10 +58648,10 @@
       <c r="A6" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="75"/>
+      <c r="C6" s="77"/>
       <c r="D6" s="49"/>
       <c r="E6" s="49"/>
       <c r="F6" s="49"/>
@@ -58527,2243 +58672,2263 @@
       <c r="U6" s="50"/>
     </row>
     <row r="7" spans="1:23" ht="12" thickBot="1">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="51">
-        <v>28349395.272100002</v>
+        <v>19236031.1336</v>
       </c>
       <c r="E7" s="51">
-        <v>24941177.509500001</v>
+        <v>19041997.359000001</v>
       </c>
       <c r="F7" s="52">
-        <v>113.665023478951</v>
+        <v>101.01897805646</v>
       </c>
       <c r="G7" s="51">
-        <v>27038677.0944</v>
+        <v>19563347.239100002</v>
       </c>
       <c r="H7" s="52">
-        <v>4.8475677013483303</v>
+        <v>-1.67310890871382</v>
       </c>
       <c r="I7" s="51">
-        <v>2626815.6641000002</v>
+        <v>1613907.8396999999</v>
       </c>
       <c r="J7" s="52">
-        <v>9.2658613663099008</v>
+        <v>8.3900250966060792</v>
       </c>
       <c r="K7" s="51">
-        <v>1226340.7046999999</v>
+        <v>2087494.2028999999</v>
       </c>
       <c r="L7" s="52">
-        <v>4.5355055664094897</v>
+        <v>10.670434754272801</v>
       </c>
       <c r="M7" s="52">
-        <v>1.1419950051666901</v>
+        <v>-0.22686834892383501</v>
       </c>
       <c r="N7" s="51">
-        <v>28349395.272100002</v>
+        <v>134232137.1232</v>
       </c>
       <c r="O7" s="51">
-        <v>3475842131.0598001</v>
+        <v>3581724872.9109001</v>
       </c>
       <c r="P7" s="51">
-        <v>1067332</v>
+        <v>847701</v>
       </c>
       <c r="Q7" s="51">
-        <v>811114</v>
+        <v>790657</v>
       </c>
       <c r="R7" s="52">
-        <v>31.588408041286399</v>
+        <v>7.21475937100411</v>
       </c>
       <c r="S7" s="51">
-        <v>26.560990649676</v>
+        <v>22.692000049073901</v>
       </c>
       <c r="T7" s="51">
-        <v>22.804283582332499</v>
+        <v>20.155925413675</v>
       </c>
       <c r="U7" s="53">
-        <v>14.143700876568699</v>
+        <v>11.176073637909401</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="12" thickBot="1">
-      <c r="A8" s="79">
-        <v>42522</v>
-      </c>
-      <c r="B8" s="69" t="s">
+      <c r="A8" s="81">
+        <v>42528</v>
+      </c>
+      <c r="B8" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="70"/>
+      <c r="C8" s="72"/>
       <c r="D8" s="54">
-        <v>515806.14919999999</v>
+        <v>452264.03480000002</v>
       </c>
       <c r="E8" s="54">
-        <v>712971.95519999997</v>
+        <v>557690.66449999996</v>
       </c>
       <c r="F8" s="55">
-        <v>72.345924049047397</v>
+        <v>81.095858975060906</v>
       </c>
       <c r="G8" s="54">
-        <v>625416.66799999995</v>
+        <v>611778.33559999999</v>
       </c>
       <c r="H8" s="55">
-        <v>-17.525998971297</v>
+        <v>-26.073872106562401</v>
       </c>
       <c r="I8" s="54">
-        <v>119671.5843</v>
+        <v>111141.236</v>
       </c>
       <c r="J8" s="55">
-        <v>23.200883604355401</v>
+        <v>24.5744139370155</v>
       </c>
       <c r="K8" s="54">
-        <v>158064.57079999999</v>
+        <v>152729.5399</v>
       </c>
       <c r="L8" s="55">
-        <v>25.273482285892602</v>
+        <v>24.964849360056402</v>
       </c>
       <c r="M8" s="55">
-        <v>-0.24289432037606201</v>
+        <v>-0.27230032858888997</v>
       </c>
       <c r="N8" s="54">
-        <v>515806.14919999999</v>
+        <v>3420517.9174000002</v>
       </c>
       <c r="O8" s="54">
-        <v>125972518.919</v>
+        <v>128877230.68719999</v>
       </c>
       <c r="P8" s="54">
-        <v>26449</v>
+        <v>20434</v>
       </c>
       <c r="Q8" s="54">
-        <v>21994</v>
+        <v>20092</v>
       </c>
       <c r="R8" s="55">
-        <v>20.255524233881999</v>
+        <v>1.7021700179175701</v>
       </c>
       <c r="S8" s="54">
-        <v>19.5019149759915</v>
+        <v>22.1329174317314</v>
       </c>
       <c r="T8" s="54">
-        <v>21.083318582340599</v>
+        <v>21.802411502090401</v>
       </c>
       <c r="U8" s="56">
-        <v>-8.1089657518041101</v>
+        <v>1.49327774189953</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="12" thickBot="1">
-      <c r="A9" s="80"/>
-      <c r="B9" s="69" t="s">
+      <c r="A9" s="82"/>
+      <c r="B9" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="70"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="54">
-        <v>380186.98109999998</v>
+        <v>48594.9018</v>
       </c>
       <c r="E9" s="54">
-        <v>334827.23469999997</v>
+        <v>72769.498300000007</v>
       </c>
       <c r="F9" s="55">
-        <v>113.547209336374</v>
+        <v>66.779217852598606</v>
       </c>
       <c r="G9" s="54">
-        <v>291430.26089999999</v>
+        <v>108323.077</v>
       </c>
       <c r="H9" s="55">
-        <v>30.455560766373399</v>
+        <v>-55.138920398282302</v>
       </c>
       <c r="I9" s="54">
-        <v>89050.571800000005</v>
+        <v>10690.7237</v>
       </c>
       <c r="J9" s="55">
-        <v>23.4228356642694</v>
+        <v>21.999681662079201</v>
       </c>
       <c r="K9" s="54">
-        <v>30961.2893</v>
+        <v>24931.7569</v>
       </c>
       <c r="L9" s="55">
-        <v>10.6239102296326</v>
+        <v>23.0161084696662</v>
       </c>
       <c r="M9" s="55">
-        <v>1.8761906824080501</v>
+        <v>-0.57120054784426399</v>
       </c>
       <c r="N9" s="54">
-        <v>380186.98109999998</v>
+        <v>764698.72069999995</v>
       </c>
       <c r="O9" s="54">
-        <v>17982088.183400001</v>
+        <v>18366599.923</v>
       </c>
       <c r="P9" s="54">
-        <v>14650</v>
+        <v>2814</v>
       </c>
       <c r="Q9" s="54">
-        <v>5949</v>
+        <v>2829</v>
       </c>
       <c r="R9" s="55">
-        <v>146.25987560934601</v>
+        <v>-0.53022269353127904</v>
       </c>
       <c r="S9" s="54">
-        <v>25.9513297679181</v>
+        <v>17.2689771855011</v>
       </c>
       <c r="T9" s="54">
-        <v>50.898644125063001</v>
+        <v>16.714019688935998</v>
       </c>
       <c r="U9" s="56">
-        <v>-96.131160060960198</v>
+        <v>3.2136095299899101</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="12" thickBot="1">
-      <c r="A10" s="80"/>
-      <c r="B10" s="69" t="s">
+      <c r="A10" s="82"/>
+      <c r="B10" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="70"/>
+      <c r="C10" s="72"/>
       <c r="D10" s="54">
-        <v>1662648.6795000001</v>
+        <v>99784.681899999996</v>
       </c>
       <c r="E10" s="54">
-        <v>1273597.3313</v>
+        <v>147504.62590000001</v>
       </c>
       <c r="F10" s="55">
-        <v>130.547437454418</v>
+        <v>67.648510201740095</v>
       </c>
       <c r="G10" s="54">
-        <v>1111434.1099</v>
+        <v>175032.5232</v>
       </c>
       <c r="H10" s="55">
-        <v>49.594894082348702</v>
+        <v>-42.9907767563965</v>
       </c>
       <c r="I10" s="54">
-        <v>287940.66989999998</v>
+        <v>27966.0602</v>
       </c>
       <c r="J10" s="55">
-        <v>17.318190754921901</v>
+        <v>28.026406125167</v>
       </c>
       <c r="K10" s="54">
-        <v>-82712.8508</v>
+        <v>50323.975100000003</v>
       </c>
       <c r="L10" s="55">
-        <v>-7.44199319269066</v>
+        <v>28.7512138772619</v>
       </c>
       <c r="M10" s="55">
-        <v>-4.48120838678674</v>
+        <v>-0.44427958752407898</v>
       </c>
       <c r="N10" s="54">
-        <v>1662648.6795000001</v>
+        <v>2357287.4523</v>
       </c>
       <c r="O10" s="54">
-        <v>32490319.0524</v>
+        <v>33184957.825199999</v>
       </c>
       <c r="P10" s="54">
-        <v>125630</v>
+        <v>87339</v>
       </c>
       <c r="Q10" s="54">
-        <v>88933</v>
+        <v>81961</v>
       </c>
       <c r="R10" s="55">
-        <v>41.263647914722299</v>
+        <v>6.5616573736289299</v>
       </c>
       <c r="S10" s="54">
-        <v>13.2344876184032</v>
+        <v>1.14249856192537</v>
       </c>
       <c r="T10" s="54">
-        <v>7.2524308726794304</v>
+        <v>1.08796010785618</v>
       </c>
       <c r="U10" s="56">
-        <v>45.200516394797603</v>
+        <v>4.7736124916679099</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="12" thickBot="1">
-      <c r="A11" s="80"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="82"/>
+      <c r="B11" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="70"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="54">
-        <v>79740.717099999994</v>
+        <v>67401.355200000005</v>
       </c>
       <c r="E11" s="54">
-        <v>108183.5502</v>
+        <v>64322.485500000003</v>
       </c>
       <c r="F11" s="55">
-        <v>73.708726467732404</v>
+        <v>104.78661493887699</v>
       </c>
       <c r="G11" s="54">
-        <v>93071.158500000005</v>
+        <v>82779.334799999997</v>
       </c>
       <c r="H11" s="55">
-        <v>-14.3228488984587</v>
+        <v>-18.5770755915763</v>
       </c>
       <c r="I11" s="54">
-        <v>19252.4015</v>
+        <v>15611.7665</v>
       </c>
       <c r="J11" s="55">
-        <v>24.143752652558</v>
+        <v>23.162392586432698</v>
       </c>
       <c r="K11" s="54">
-        <v>22314.4771</v>
+        <v>18864.496200000001</v>
       </c>
       <c r="L11" s="55">
-        <v>23.975716494385299</v>
+        <v>22.788895616977101</v>
       </c>
       <c r="M11" s="55">
-        <v>-0.13722372190384</v>
+        <v>-0.17242600414635001</v>
       </c>
       <c r="N11" s="54">
-        <v>79740.717099999994</v>
+        <v>449182.24239999999</v>
       </c>
       <c r="O11" s="54">
-        <v>10240011.4388</v>
+        <v>10609452.9641</v>
       </c>
       <c r="P11" s="54">
-        <v>3826</v>
+        <v>2615</v>
       </c>
       <c r="Q11" s="54">
-        <v>2632</v>
+        <v>2459</v>
       </c>
       <c r="R11" s="55">
-        <v>45.364741641337403</v>
+        <v>6.3440422936152903</v>
       </c>
       <c r="S11" s="54">
-        <v>20.8417974647151</v>
+        <v>25.7748968260038</v>
       </c>
       <c r="T11" s="54">
-        <v>21.499363677811601</v>
+        <v>24.584996665311099</v>
       </c>
       <c r="U11" s="56">
-        <v>-3.1550360001803699</v>
+        <v>4.61650794850999</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="12" thickBot="1">
-      <c r="A12" s="80"/>
-      <c r="B12" s="69" t="s">
+      <c r="A12" s="82"/>
+      <c r="B12" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="70"/>
+      <c r="C12" s="72"/>
       <c r="D12" s="54">
-        <v>904708.51459999999</v>
+        <v>260685.8763</v>
       </c>
       <c r="E12" s="54">
-        <v>303506.69660000002</v>
+        <v>277843.33409999998</v>
       </c>
       <c r="F12" s="55">
-        <v>298.08519045375198</v>
+        <v>93.824772562718806</v>
       </c>
       <c r="G12" s="54">
-        <v>271454.6262</v>
+        <v>221785.0287</v>
       </c>
       <c r="H12" s="55">
-        <v>233.281671145084</v>
+        <v>17.539888886106802</v>
       </c>
       <c r="I12" s="54">
-        <v>272194.69219999999</v>
+        <v>40441.314200000001</v>
       </c>
       <c r="J12" s="55">
-        <v>30.086451913227101</v>
+        <v>15.513427414632799</v>
       </c>
       <c r="K12" s="54">
-        <v>57035.148200000003</v>
+        <v>42057.844599999997</v>
       </c>
       <c r="L12" s="55">
-        <v>21.010932470894101</v>
+        <v>18.963337988376999</v>
       </c>
       <c r="M12" s="55">
-        <v>3.7724026462685698</v>
+        <v>-3.8435883136055997E-2</v>
       </c>
       <c r="N12" s="54">
-        <v>904708.51459999999</v>
+        <v>2168785.7283999999</v>
       </c>
       <c r="O12" s="54">
-        <v>35812600.116999999</v>
+        <v>37076677.330799997</v>
       </c>
       <c r="P12" s="54">
-        <v>6114</v>
+        <v>2880</v>
       </c>
       <c r="Q12" s="54">
-        <v>3789</v>
+        <v>2673</v>
       </c>
       <c r="R12" s="55">
-        <v>61.361836896278703</v>
+        <v>7.7441077441077404</v>
       </c>
       <c r="S12" s="54">
-        <v>147.97326048413501</v>
+        <v>90.515929270833297</v>
       </c>
       <c r="T12" s="54">
-        <v>147.30385014515701</v>
+        <v>92.858594650205802</v>
       </c>
       <c r="U12" s="56">
-        <v>0.45238601676247697</v>
+        <v>-2.5881249833528401</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="12" thickBot="1">
-      <c r="A13" s="80"/>
-      <c r="B13" s="69" t="s">
+      <c r="A13" s="82"/>
+      <c r="B13" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="70"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="54">
-        <v>750997.94469999999</v>
+        <v>205992.8609</v>
       </c>
       <c r="E13" s="54">
-        <v>363003.87170000002</v>
+        <v>278833.00530000002</v>
       </c>
       <c r="F13" s="55">
-        <v>206.88427954858099</v>
+        <v>73.876785382121298</v>
       </c>
       <c r="G13" s="54">
-        <v>328476.31390000001</v>
+        <v>283241.20500000002</v>
       </c>
       <c r="H13" s="55">
-        <v>128.63077577296201</v>
+        <v>-27.272989500238801</v>
       </c>
       <c r="I13" s="54">
-        <v>229700.55350000001</v>
+        <v>61642.095099999999</v>
       </c>
       <c r="J13" s="55">
-        <v>30.586042894133101</v>
+        <v>29.924384190151301</v>
       </c>
       <c r="K13" s="54">
-        <v>90118.147700000001</v>
+        <v>85213.983900000007</v>
       </c>
       <c r="L13" s="55">
-        <v>27.4352042709037</v>
+        <v>30.085306232191702</v>
       </c>
       <c r="M13" s="55">
-        <v>1.5488823212907701</v>
+        <v>-0.27661995979042597</v>
       </c>
       <c r="N13" s="54">
-        <v>750997.94469999999</v>
+        <v>1943135.9945</v>
       </c>
       <c r="O13" s="54">
-        <v>55322944.968900003</v>
+        <v>56515083.018700004</v>
       </c>
       <c r="P13" s="54">
-        <v>16401</v>
+        <v>8947</v>
       </c>
       <c r="Q13" s="54">
-        <v>12634</v>
+        <v>8637</v>
       </c>
       <c r="R13" s="55">
-        <v>29.816368529365199</v>
+        <v>3.58920921616301</v>
       </c>
       <c r="S13" s="54">
-        <v>45.789765544783897</v>
+        <v>23.023679546216599</v>
       </c>
       <c r="T13" s="54">
-        <v>42.316559110337202</v>
+        <v>22.631837385666302</v>
       </c>
       <c r="U13" s="56">
-        <v>7.58511513025715</v>
+        <v>1.70190937449302</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="12" thickBot="1">
-      <c r="A14" s="80"/>
-      <c r="B14" s="69" t="s">
+      <c r="A14" s="82"/>
+      <c r="B14" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="70"/>
+      <c r="C14" s="72"/>
       <c r="D14" s="54">
-        <v>143478.4485</v>
+        <v>148356.65919999999</v>
       </c>
       <c r="E14" s="54">
-        <v>276671.9632</v>
+        <v>195876.66399999999</v>
       </c>
       <c r="F14" s="55">
-        <v>51.858687393013</v>
+        <v>75.739833510744305</v>
       </c>
       <c r="G14" s="54">
-        <v>262691.41259999998</v>
+        <v>193083.76029999999</v>
       </c>
       <c r="H14" s="55">
-        <v>-45.381370833589301</v>
+        <v>-23.164610545447299</v>
       </c>
       <c r="I14" s="54">
-        <v>34019.222300000001</v>
+        <v>30602.485100000002</v>
       </c>
       <c r="J14" s="55">
-        <v>23.710336050922699</v>
+        <v>20.6276450716949</v>
       </c>
       <c r="K14" s="54">
-        <v>54438.548300000002</v>
+        <v>42300.614500000003</v>
       </c>
       <c r="L14" s="55">
-        <v>20.723383288852901</v>
+        <v>21.907908999843499</v>
       </c>
       <c r="M14" s="55">
-        <v>-0.37508946578577301</v>
+        <v>-0.27654750500137498</v>
       </c>
       <c r="N14" s="54">
-        <v>143478.4485</v>
+        <v>868091.21340000001</v>
       </c>
       <c r="O14" s="54">
-        <v>24698891.157099999</v>
+        <v>25423503.921999998</v>
       </c>
       <c r="P14" s="54">
-        <v>3411</v>
+        <v>2742</v>
       </c>
       <c r="Q14" s="54">
-        <v>2374</v>
+        <v>2366</v>
       </c>
       <c r="R14" s="55">
-        <v>43.681550126368997</v>
+        <v>15.891800507185099</v>
       </c>
       <c r="S14" s="54">
-        <v>42.063456024626198</v>
+        <v>54.105273231218099</v>
       </c>
       <c r="T14" s="54">
-        <v>63.083008466722802</v>
+        <v>54.052238841927299</v>
       </c>
       <c r="U14" s="56">
-        <v>-49.971054279968499</v>
+        <v>9.8020740167324996E-2</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="12" thickBot="1">
-      <c r="A15" s="80"/>
-      <c r="B15" s="69" t="s">
+      <c r="A15" s="82"/>
+      <c r="B15" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="70"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="54">
-        <v>139489.0779</v>
+        <v>115624.247</v>
       </c>
       <c r="E15" s="54">
-        <v>180943.5949</v>
+        <v>150126.47039999999</v>
       </c>
       <c r="F15" s="55">
-        <v>77.089812423086798</v>
+        <v>77.017894773605505</v>
       </c>
       <c r="G15" s="54">
-        <v>165239.9964</v>
+        <v>127162.48450000001</v>
       </c>
       <c r="H15" s="55">
-        <v>-15.583950049033101</v>
+        <v>-9.0736175416579101</v>
       </c>
       <c r="I15" s="54">
-        <v>29389.125199999999</v>
+        <v>21998.419000000002</v>
       </c>
       <c r="J15" s="55">
-        <v>21.069122860693899</v>
+        <v>19.025783579805701</v>
       </c>
       <c r="K15" s="54">
-        <v>33630.235699999997</v>
+        <v>33225.814299999998</v>
       </c>
       <c r="L15" s="55">
-        <v>20.3523580444716</v>
+        <v>26.128629391477499</v>
       </c>
       <c r="M15" s="55">
-        <v>-0.1261100438853</v>
+        <v>-0.33791181755927602</v>
       </c>
       <c r="N15" s="54">
-        <v>139489.0779</v>
+        <v>790451.77410000004</v>
       </c>
       <c r="O15" s="54">
-        <v>20613910.345699999</v>
+        <v>21264873.041900001</v>
       </c>
       <c r="P15" s="54">
-        <v>6601</v>
+        <v>5535</v>
       </c>
       <c r="Q15" s="54">
-        <v>4928</v>
+        <v>5247</v>
       </c>
       <c r="R15" s="55">
-        <v>33.948863636363697</v>
+        <v>5.4888507718696502</v>
       </c>
       <c r="S15" s="54">
-        <v>21.131507029238001</v>
+        <v>20.889656187895199</v>
       </c>
       <c r="T15" s="54">
-        <v>20.903158624188301</v>
+        <v>21.211963331427501</v>
       </c>
       <c r="U15" s="56">
-        <v>1.08060634167611</v>
+        <v>-1.54290305514476</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="12" thickBot="1">
-      <c r="A16" s="80"/>
-      <c r="B16" s="69" t="s">
+      <c r="A16" s="82"/>
+      <c r="B16" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="70"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="54">
-        <v>1338581.0334000001</v>
+        <v>1017211.6933</v>
       </c>
       <c r="E16" s="54">
-        <v>1560958.9092000001</v>
+        <v>1081317.6606000001</v>
       </c>
       <c r="F16" s="55">
-        <v>85.753764914031606</v>
+        <v>94.071495395309697</v>
       </c>
       <c r="G16" s="54">
-        <v>1334358.6882</v>
+        <v>986865.28659999999</v>
       </c>
       <c r="H16" s="55">
-        <v>0.31643254826001499</v>
+        <v>3.0750303118423501</v>
       </c>
       <c r="I16" s="54">
-        <v>-64176.915999999997</v>
+        <v>-5786.2759999999998</v>
       </c>
       <c r="J16" s="55">
-        <v>-4.7943990239418302</v>
+        <v>-0.56883695283017999</v>
       </c>
       <c r="K16" s="54">
-        <v>73474.025500000003</v>
+        <v>52919.4179</v>
       </c>
       <c r="L16" s="55">
-        <v>5.5063174654420504</v>
+        <v>5.3623750494174098</v>
       </c>
       <c r="M16" s="55">
-        <v>-1.8734639971509399</v>
+        <v>-1.1093412631812001</v>
       </c>
       <c r="N16" s="54">
-        <v>1338581.0334000001</v>
+        <v>7056247.4231000002</v>
       </c>
       <c r="O16" s="54">
-        <v>173732734.93610001</v>
+        <v>179450401.3258</v>
       </c>
       <c r="P16" s="54">
-        <v>65640</v>
+        <v>43601</v>
       </c>
       <c r="Q16" s="54">
-        <v>47876</v>
+        <v>43301</v>
       </c>
       <c r="R16" s="55">
-        <v>37.104185813351201</v>
+        <v>0.69282464608206895</v>
       </c>
       <c r="S16" s="54">
-        <v>20.3927640676417</v>
+        <v>23.330008332377702</v>
       </c>
       <c r="T16" s="54">
-        <v>24.0028687024814</v>
+        <v>20.2933965682086</v>
       </c>
       <c r="U16" s="56">
-        <v>-17.7028706008916</v>
+        <v>13.015905184889499</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="12" thickBot="1">
-      <c r="A17" s="80"/>
-      <c r="B17" s="69" t="s">
+      <c r="A17" s="82"/>
+      <c r="B17" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="70"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="54">
-        <v>615793.93969999999</v>
+        <v>861251.66709999996</v>
       </c>
       <c r="E17" s="54">
-        <v>768008.90500000003</v>
+        <v>1077576.0881000001</v>
       </c>
       <c r="F17" s="55">
-        <v>80.180572867185703</v>
+        <v>79.924905221177795</v>
       </c>
       <c r="G17" s="54">
-        <v>2359956.7261000001</v>
+        <v>412116.03110000002</v>
       </c>
       <c r="H17" s="55">
-        <v>-73.9065579936441</v>
+        <v>108.982811176063</v>
       </c>
       <c r="I17" s="54">
-        <v>61729.561399999999</v>
+        <v>97898.760699999999</v>
       </c>
       <c r="J17" s="55">
-        <v>10.024385986986699</v>
+        <v>11.367032940515999</v>
       </c>
       <c r="K17" s="54">
-        <v>88418.856799999994</v>
+        <v>56593.596799999999</v>
       </c>
       <c r="L17" s="55">
-        <v>3.7466304285213998</v>
+        <v>13.732442450477601</v>
       </c>
       <c r="M17" s="55">
-        <v>-0.30185071788894702</v>
+        <v>0.72985578290722797</v>
       </c>
       <c r="N17" s="54">
-        <v>615793.93969999999</v>
+        <v>4509449.8505999995</v>
       </c>
       <c r="O17" s="54">
-        <v>198989944.57659999</v>
+        <v>202883600.48750001</v>
       </c>
       <c r="P17" s="54">
-        <v>11951</v>
+        <v>12304</v>
       </c>
       <c r="Q17" s="54">
-        <v>10418</v>
+        <v>11632</v>
       </c>
       <c r="R17" s="55">
-        <v>14.7149164906892</v>
+        <v>5.7771664374140403</v>
       </c>
       <c r="S17" s="54">
-        <v>51.5265617688896</v>
+        <v>69.997697261053304</v>
       </c>
       <c r="T17" s="54">
-        <v>107.21879227298901</v>
+        <v>68.836634413686397</v>
       </c>
       <c r="U17" s="56">
-        <v>-108.084507469941</v>
+        <v>1.6587157760873199</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="12" customHeight="1" thickBot="1">
-      <c r="A18" s="80"/>
-      <c r="B18" s="69" t="s">
+    <row r="18" spans="1:21" ht="12" thickBot="1">
+      <c r="A18" s="82"/>
+      <c r="B18" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="70"/>
+      <c r="C18" s="72"/>
       <c r="D18" s="54">
-        <v>2153027.1633000001</v>
+        <v>1381281.1779</v>
       </c>
       <c r="E18" s="54">
-        <v>2739659.5446000001</v>
+        <v>1991855.7990999999</v>
       </c>
       <c r="F18" s="55">
-        <v>78.5873984796293</v>
+        <v>69.346444583193104</v>
       </c>
       <c r="G18" s="54">
-        <v>2212839.6510000001</v>
+        <v>1811830.9528000001</v>
       </c>
       <c r="H18" s="55">
-        <v>-2.70297432861756</v>
+        <v>-23.7632420527218</v>
       </c>
       <c r="I18" s="54">
-        <v>298949.1581</v>
+        <v>199724.2206</v>
       </c>
       <c r="J18" s="55">
-        <v>13.885062074265401</v>
+        <v>14.4593456998847</v>
       </c>
       <c r="K18" s="54">
-        <v>371944.78889999999</v>
+        <v>281154.67589999997</v>
       </c>
       <c r="L18" s="55">
-        <v>16.808483557853599</v>
+        <v>15.517710163053801</v>
       </c>
       <c r="M18" s="55">
-        <v>-0.19625394138705199</v>
+        <v>-0.28962867161762201</v>
       </c>
       <c r="N18" s="54">
-        <v>2153027.1633000001</v>
+        <v>10748172.8849</v>
       </c>
       <c r="O18" s="54">
-        <v>380947536.13630003</v>
+        <v>389542681.85790002</v>
       </c>
       <c r="P18" s="54">
-        <v>97317</v>
+        <v>57791</v>
       </c>
       <c r="Q18" s="54">
-        <v>63553</v>
+        <v>54621</v>
       </c>
       <c r="R18" s="55">
-        <v>53.127311063207102</v>
+        <v>5.8036286409988804</v>
       </c>
       <c r="S18" s="54">
-        <v>22.123854653349401</v>
+        <v>23.9013198923708</v>
       </c>
       <c r="T18" s="54">
-        <v>22.357307686497901</v>
+        <v>21.118789308141601</v>
       </c>
       <c r="U18" s="56">
-        <v>-1.05520957720261</v>
+        <v>11.6417444591309</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="12" customHeight="1" thickBot="1">
-      <c r="A19" s="80"/>
-      <c r="B19" s="69" t="s">
+    <row r="19" spans="1:21" ht="12" thickBot="1">
+      <c r="A19" s="82"/>
+      <c r="B19" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="70"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="54">
-        <v>2340868.7022000002</v>
+        <v>516526.05330000003</v>
       </c>
       <c r="E19" s="54">
-        <v>1866436.9609000001</v>
+        <v>783030.85019999999</v>
       </c>
       <c r="F19" s="55">
-        <v>125.419114132375</v>
+        <v>65.964968451507403</v>
       </c>
       <c r="G19" s="54">
-        <v>1632360.6395</v>
+        <v>489357.29609999998</v>
       </c>
       <c r="H19" s="55">
-        <v>43.403892838105897</v>
+        <v>5.5519264587501098</v>
       </c>
       <c r="I19" s="54">
-        <v>-431774.60239999997</v>
+        <v>37148.273999999998</v>
       </c>
       <c r="J19" s="55">
-        <v>-18.445058537209199</v>
+        <v>7.1919458394529698</v>
       </c>
       <c r="K19" s="54">
-        <v>-135537.84820000001</v>
+        <v>47838.251799999998</v>
       </c>
       <c r="L19" s="55">
-        <v>-8.3031803708227105</v>
+        <v>9.7757307761125691</v>
       </c>
       <c r="M19" s="55">
-        <v>2.1856386104261598</v>
+        <v>-0.223460879061638</v>
       </c>
       <c r="N19" s="54">
-        <v>2340868.7022000002</v>
+        <v>5000794.6074000001</v>
       </c>
       <c r="O19" s="54">
-        <v>113009145.86210001</v>
+        <v>115669071.76729999</v>
       </c>
       <c r="P19" s="54">
-        <v>14203</v>
+        <v>8442</v>
       </c>
       <c r="Q19" s="54">
-        <v>7521</v>
+        <v>7295</v>
       </c>
       <c r="R19" s="55">
-        <v>88.844568541417402</v>
+        <v>15.7230980123372</v>
       </c>
       <c r="S19" s="54">
-        <v>164.815088516511</v>
+        <v>61.1852704690832</v>
       </c>
       <c r="T19" s="54">
-        <v>83.325810557106806</v>
+        <v>52.888865044551103</v>
       </c>
       <c r="U19" s="56">
-        <v>49.442850586607904</v>
+        <v>13.5594814910956</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="12" thickBot="1">
-      <c r="A20" s="80"/>
-      <c r="B20" s="69" t="s">
+      <c r="A20" s="82"/>
+      <c r="B20" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="70"/>
+      <c r="C20" s="72"/>
       <c r="D20" s="54">
-        <v>1025898.5806</v>
+        <v>1007799.272</v>
       </c>
       <c r="E20" s="54">
-        <v>1269353.9368</v>
+        <v>1108432.1024</v>
       </c>
       <c r="F20" s="55">
-        <v>80.820530102601396</v>
+        <v>90.921155190100706</v>
       </c>
       <c r="G20" s="54">
-        <v>1068227.5930999999</v>
+        <v>1005662.0696</v>
       </c>
       <c r="H20" s="55">
-        <v>-3.96254625637981</v>
+        <v>0.21251695421404801</v>
       </c>
       <c r="I20" s="54">
-        <v>123744.406</v>
+        <v>103881.2006</v>
       </c>
       <c r="J20" s="55">
-        <v>12.062050610073699</v>
+        <v>10.307727291154499</v>
       </c>
       <c r="K20" s="54">
-        <v>58372.470699999998</v>
+        <v>89178.123500000002</v>
       </c>
       <c r="L20" s="55">
-        <v>5.4644226639571096</v>
+        <v>8.8676033625759008</v>
       </c>
       <c r="M20" s="55">
-        <v>1.11991037069466</v>
+        <v>0.16487313842166701</v>
       </c>
       <c r="N20" s="54">
-        <v>1025898.5806</v>
+        <v>6970961.6116000004</v>
       </c>
       <c r="O20" s="54">
-        <v>197748786.3087</v>
+        <v>203693849.33970001</v>
       </c>
       <c r="P20" s="54">
-        <v>38631</v>
+        <v>35977</v>
       </c>
       <c r="Q20" s="54">
-        <v>35221</v>
+        <v>34092</v>
       </c>
       <c r="R20" s="55">
-        <v>9.6817239714942698</v>
+        <v>5.5291564003285201</v>
       </c>
       <c r="S20" s="54">
-        <v>26.556355791980501</v>
+        <v>28.012320982850198</v>
       </c>
       <c r="T20" s="54">
-        <v>37.014024545015801</v>
+        <v>27.299159010911701</v>
       </c>
       <c r="U20" s="56">
-        <v>-39.379155916389799</v>
+        <v>2.5458867630965698</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="12" customHeight="1" thickBot="1">
-      <c r="A21" s="80"/>
-      <c r="B21" s="69" t="s">
+    <row r="21" spans="1:21" ht="12" thickBot="1">
+      <c r="A21" s="82"/>
+      <c r="B21" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="70"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="54">
-        <v>301592.92580000003</v>
+        <v>302612.46149999998</v>
       </c>
       <c r="E21" s="54">
-        <v>371628.1151</v>
+        <v>406174.25809999998</v>
       </c>
       <c r="F21" s="55">
-        <v>81.154496537175504</v>
+        <v>74.503111771671399</v>
       </c>
       <c r="G21" s="54">
-        <v>319239.05119999999</v>
+        <v>368694.57530000003</v>
       </c>
       <c r="H21" s="55">
-        <v>-5.5275585282155504</v>
+        <v>-17.923267177508698</v>
       </c>
       <c r="I21" s="54">
-        <v>34150.525900000001</v>
+        <v>36163.828800000003</v>
       </c>
       <c r="J21" s="55">
-        <v>11.3233842635443</v>
+        <v>11.950541831867</v>
       </c>
       <c r="K21" s="54">
-        <v>37024.288999999997</v>
+        <v>33513.224699999999</v>
       </c>
       <c r="L21" s="55">
-        <v>11.597669163853199</v>
+        <v>9.0896983425185702</v>
       </c>
       <c r="M21" s="55">
-        <v>-7.7618319692783003E-2</v>
+        <v>7.9091287804363003E-2</v>
       </c>
       <c r="N21" s="54">
-        <v>301592.92580000003</v>
+        <v>2073621.5739</v>
       </c>
       <c r="O21" s="54">
-        <v>67664284.9014</v>
+        <v>69436313.549500003</v>
       </c>
       <c r="P21" s="54">
-        <v>26843</v>
+        <v>21518</v>
       </c>
       <c r="Q21" s="54">
-        <v>22930</v>
+        <v>20720</v>
       </c>
       <c r="R21" s="55">
-        <v>17.0649803750545</v>
+        <v>3.85135135135135</v>
       </c>
       <c r="S21" s="54">
-        <v>11.2354403680662</v>
+        <v>14.0632243470583</v>
       </c>
       <c r="T21" s="54">
-        <v>11.0561132969908</v>
+        <v>11.9624187596525</v>
       </c>
       <c r="U21" s="56">
-        <v>1.59608404477864</v>
+        <v>14.9382924965228</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="12" customHeight="1" thickBot="1">
-      <c r="A22" s="80"/>
-      <c r="B22" s="69" t="s">
+    <row r="22" spans="1:21" ht="12" thickBot="1">
+      <c r="A22" s="82"/>
+      <c r="B22" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="70"/>
+      <c r="C22" s="72"/>
       <c r="D22" s="54">
-        <v>1609823.7392</v>
+        <v>2735835.4567999998</v>
       </c>
       <c r="E22" s="54">
-        <v>1879004.9483</v>
+        <v>1658617.9654999999</v>
       </c>
       <c r="F22" s="55">
-        <v>85.674268216082297</v>
+        <v>164.94669138443001</v>
       </c>
       <c r="G22" s="54">
-        <v>1598460.9212</v>
+        <v>1599745.1324</v>
       </c>
       <c r="H22" s="55">
-        <v>0.71085991839385798</v>
+        <v>71.016957725984298</v>
       </c>
       <c r="I22" s="54">
-        <v>84388.463900000002</v>
+        <v>174346.6551</v>
       </c>
       <c r="J22" s="55">
-        <v>5.24209339476735</v>
+        <v>6.3727025200531102</v>
       </c>
       <c r="K22" s="54">
-        <v>230363.71849999999</v>
+        <v>197968.86189999999</v>
       </c>
       <c r="L22" s="55">
-        <v>14.411595269220699</v>
+        <v>12.3750251143443</v>
       </c>
       <c r="M22" s="55">
-        <v>-0.63367293925670798</v>
+        <v>-0.119322839830904</v>
       </c>
       <c r="N22" s="54">
-        <v>1609823.7392</v>
+        <v>12736079.171499999</v>
       </c>
       <c r="O22" s="54">
-        <v>219778580.4048</v>
+        <v>230904835.8371</v>
       </c>
       <c r="P22" s="54">
-        <v>92308</v>
+        <v>75518</v>
       </c>
       <c r="Q22" s="54">
-        <v>69247</v>
+        <v>70516</v>
       </c>
       <c r="R22" s="55">
-        <v>33.302525741187402</v>
+        <v>7.0934256055363401</v>
       </c>
       <c r="S22" s="54">
-        <v>17.4396990423365</v>
+        <v>36.227594173574502</v>
       </c>
       <c r="T22" s="54">
-        <v>17.9127307031352</v>
+        <v>27.996246905666801</v>
       </c>
       <c r="U22" s="56">
-        <v>-2.7123843115084898</v>
+        <v>22.721208668920902</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="12" thickBot="1">
-      <c r="A23" s="80"/>
-      <c r="B23" s="69" t="s">
+      <c r="A23" s="82"/>
+      <c r="B23" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="70"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="54">
-        <v>6909390.7180000003</v>
+        <v>2267265.8585999999</v>
       </c>
       <c r="E23" s="54">
-        <v>3726594.9369000001</v>
+        <v>2857702.0734999999</v>
       </c>
       <c r="F23" s="55">
-        <v>185.40761298161499</v>
+        <v>79.338776411466299</v>
       </c>
       <c r="G23" s="54">
-        <v>5738919.0374999996</v>
+        <v>3094848.1329000001</v>
       </c>
       <c r="H23" s="55">
-        <v>20.395333561107101</v>
+        <v>-26.7406424729643</v>
       </c>
       <c r="I23" s="54">
-        <v>942185.03460000001</v>
+        <v>184734.11379999999</v>
       </c>
       <c r="J23" s="55">
-        <v>13.6362969334686</v>
+        <v>8.1478805451633391</v>
       </c>
       <c r="K23" s="54">
-        <v>-365321.32780000003</v>
+        <v>317229.49959999998</v>
       </c>
       <c r="L23" s="55">
-        <v>-6.3656818542458797</v>
+        <v>10.2502444700814</v>
       </c>
       <c r="M23" s="55">
-        <v>-3.5790583875130699</v>
+        <v>-0.41766413895008397</v>
       </c>
       <c r="N23" s="54">
-        <v>6909390.7180000003</v>
+        <v>21662270.103700001</v>
       </c>
       <c r="O23" s="54">
-        <v>498816460.01440001</v>
+        <v>513569339.40009999</v>
       </c>
       <c r="P23" s="54">
-        <v>108945</v>
+        <v>67218</v>
       </c>
       <c r="Q23" s="54">
-        <v>69000</v>
+        <v>65910</v>
       </c>
       <c r="R23" s="55">
-        <v>57.8913043478261</v>
+        <v>1.98452435138825</v>
       </c>
       <c r="S23" s="54">
-        <v>63.420907044839097</v>
+        <v>33.730040444523802</v>
       </c>
       <c r="T23" s="54">
-        <v>35.683435152173899</v>
+        <v>30.351296428463101</v>
       </c>
       <c r="U23" s="56">
-        <v>43.735533257281503</v>
+        <v>10.017017387268799</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="12" thickBot="1">
-      <c r="A24" s="80"/>
-      <c r="B24" s="69" t="s">
+      <c r="A24" s="82"/>
+      <c r="B24" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="70"/>
+      <c r="C24" s="72"/>
       <c r="D24" s="54">
-        <v>273962.7022</v>
+        <v>298576.66940000001</v>
       </c>
       <c r="E24" s="54">
-        <v>312942.40360000002</v>
+        <v>268211.02299999999</v>
       </c>
       <c r="F24" s="55">
-        <v>87.5441292226337</v>
+        <v>111.32155049421701</v>
       </c>
       <c r="G24" s="54">
-        <v>286461.10680000001</v>
+        <v>276396.10090000002</v>
       </c>
       <c r="H24" s="55">
-        <v>-4.36303718142306</v>
+        <v>8.0249209116104208</v>
       </c>
       <c r="I24" s="54">
-        <v>42097.059200000003</v>
+        <v>44220.777800000003</v>
       </c>
       <c r="J24" s="55">
-        <v>15.3659818880265</v>
+        <v>14.8105268535761</v>
       </c>
       <c r="K24" s="54">
-        <v>49042.5913</v>
+        <v>45449.210200000001</v>
       </c>
       <c r="L24" s="55">
-        <v>17.120157025100202</v>
+        <v>16.4435062766835</v>
       </c>
       <c r="M24" s="55">
-        <v>-0.14162245337962001</v>
+        <v>-2.7028685308155002E-2</v>
       </c>
       <c r="N24" s="54">
-        <v>273962.7022</v>
+        <v>1908573.4575</v>
       </c>
       <c r="O24" s="54">
-        <v>47279907.2016</v>
+        <v>48914517.956900001</v>
       </c>
       <c r="P24" s="54">
-        <v>25899</v>
+        <v>22600</v>
       </c>
       <c r="Q24" s="54">
-        <v>19615</v>
+        <v>19930</v>
       </c>
       <c r="R24" s="55">
-        <v>32.036706602090199</v>
+        <v>13.3968891118916</v>
       </c>
       <c r="S24" s="54">
-        <v>10.5781189312329</v>
+        <v>13.2113570530973</v>
       </c>
       <c r="T24" s="54">
-        <v>9.6689944430282999</v>
+        <v>11.924200115403901</v>
       </c>
       <c r="U24" s="56">
-        <v>8.5943870939123101</v>
+        <v>9.7428063787865202</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="12" thickBot="1">
-      <c r="A25" s="80"/>
-      <c r="B25" s="69" t="s">
+      <c r="A25" s="82"/>
+      <c r="B25" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="70"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="54">
-        <v>254849.20319999999</v>
+        <v>326627.32189999998</v>
       </c>
       <c r="E25" s="54">
-        <v>264924.55560000002</v>
+        <v>213268.60509999999</v>
       </c>
       <c r="F25" s="55">
-        <v>96.196897498919498</v>
+        <v>153.153025850592</v>
       </c>
       <c r="G25" s="54">
-        <v>219997.68729999999</v>
+        <v>284567.25880000001</v>
       </c>
       <c r="H25" s="55">
-        <v>15.841764669314299</v>
+        <v>14.780359229436399</v>
       </c>
       <c r="I25" s="54">
-        <v>17755.082600000002</v>
+        <v>13919.7011</v>
       </c>
       <c r="J25" s="55">
-        <v>6.9668974346630401</v>
+        <v>4.2616462759541101</v>
       </c>
       <c r="K25" s="54">
-        <v>19463.605299999999</v>
+        <v>24424.883600000001</v>
       </c>
       <c r="L25" s="55">
-        <v>8.8471863222173095</v>
+        <v>8.5831671932315796</v>
       </c>
       <c r="M25" s="55">
-        <v>-8.7780381571958999E-2</v>
+        <v>-0.43010164027967002</v>
       </c>
       <c r="N25" s="54">
-        <v>254849.20319999999</v>
+        <v>1857719.9256</v>
       </c>
       <c r="O25" s="54">
-        <v>60250941.583400004</v>
+        <v>61853812.305799998</v>
       </c>
       <c r="P25" s="54">
-        <v>17181</v>
+        <v>17747</v>
       </c>
       <c r="Q25" s="54">
-        <v>13532</v>
+        <v>14311</v>
       </c>
       <c r="R25" s="55">
-        <v>26.965710907478599</v>
+        <v>24.009503179372501</v>
       </c>
       <c r="S25" s="54">
-        <v>14.833199650777001</v>
+        <v>18.404649907026499</v>
       </c>
       <c r="T25" s="54">
-        <v>16.015583173218999</v>
+        <v>14.5383376982741</v>
       </c>
       <c r="U25" s="56">
-        <v>-7.9711967092688498</v>
+        <v>21.0072575587347</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="12" thickBot="1">
-      <c r="A26" s="80"/>
-      <c r="B26" s="69" t="s">
+      <c r="A26" s="82"/>
+      <c r="B26" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="70"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="54">
-        <v>603360.30740000005</v>
+        <v>706685.6361</v>
       </c>
       <c r="E26" s="54">
-        <v>671650.07880000002</v>
+        <v>637691.11250000005</v>
       </c>
       <c r="F26" s="55">
-        <v>89.832537275658495</v>
+        <v>110.81942687416699</v>
       </c>
       <c r="G26" s="54">
-        <v>579135.67740000004</v>
+        <v>670283.88859999995</v>
       </c>
       <c r="H26" s="55">
-        <v>4.1828937406784004</v>
+        <v>5.4307955359081097</v>
       </c>
       <c r="I26" s="54">
-        <v>118835.9039</v>
+        <v>120483.5028</v>
       </c>
       <c r="J26" s="55">
-        <v>19.695678095247501</v>
+        <v>17.049094625003899</v>
       </c>
       <c r="K26" s="54">
-        <v>126492.3468</v>
+        <v>140824.74419999999</v>
       </c>
       <c r="L26" s="55">
-        <v>21.841573872271301</v>
+        <v>21.0097164194318</v>
       </c>
       <c r="M26" s="55">
-        <v>-6.0528902290869997E-2</v>
+        <v>-0.14444365949716401</v>
       </c>
       <c r="N26" s="54">
-        <v>603360.30740000005</v>
+        <v>4633968.0888</v>
       </c>
       <c r="O26" s="54">
-        <v>112090678.0597</v>
+        <v>116121285.84110001</v>
       </c>
       <c r="P26" s="54">
-        <v>42488</v>
+        <v>42805</v>
       </c>
       <c r="Q26" s="54">
-        <v>36221</v>
+        <v>41100</v>
       </c>
       <c r="R26" s="55">
-        <v>17.302117556113899</v>
+        <v>4.1484184914842004</v>
       </c>
       <c r="S26" s="54">
-        <v>14.200722731124101</v>
+        <v>16.509417967527199</v>
       </c>
       <c r="T26" s="54">
-        <v>14.731540236327</v>
+        <v>15.3912481922141</v>
       </c>
       <c r="U26" s="56">
-        <v>-3.7379611957319998</v>
+        <v>6.7729206293789801</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="12" thickBot="1">
-      <c r="A27" s="80"/>
-      <c r="B27" s="69" t="s">
+      <c r="A27" s="82"/>
+      <c r="B27" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="70"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="54">
-        <v>231848.80420000001</v>
+        <v>168032.9656</v>
       </c>
       <c r="E27" s="54">
-        <v>321376.48729999998</v>
+        <v>193982.77549999999</v>
       </c>
       <c r="F27" s="55">
-        <v>72.142429008371295</v>
+        <v>86.622621604875505</v>
       </c>
       <c r="G27" s="54">
-        <v>272456.05430000002</v>
+        <v>256382.44529999999</v>
       </c>
       <c r="H27" s="55">
-        <v>-14.9041467271957</v>
+        <v>-34.460034733119102</v>
       </c>
       <c r="I27" s="54">
-        <v>59429.484900000003</v>
+        <v>40809.408100000001</v>
       </c>
       <c r="J27" s="55">
-        <v>25.632862375574</v>
+        <v>24.2865487461229</v>
       </c>
       <c r="K27" s="54">
-        <v>82119.070600000006</v>
+        <v>71890.415900000007</v>
       </c>
       <c r="L27" s="55">
-        <v>30.1402994369063</v>
+        <v>28.040303545696801</v>
       </c>
       <c r="M27" s="55">
-        <v>-0.27630105326593901</v>
+        <v>-0.432338683966356</v>
       </c>
       <c r="N27" s="54">
-        <v>231848.80420000001</v>
+        <v>1316837.3933000001</v>
       </c>
       <c r="O27" s="54">
-        <v>38660083.010200001</v>
+        <v>39745071.599299997</v>
       </c>
       <c r="P27" s="54">
-        <v>28483</v>
+        <v>20663</v>
       </c>
       <c r="Q27" s="54">
-        <v>20240</v>
+        <v>18997</v>
       </c>
       <c r="R27" s="55">
-        <v>40.726284584980199</v>
+        <v>8.7698057588040204</v>
       </c>
       <c r="S27" s="54">
-        <v>8.1399011410314905</v>
+        <v>8.1320701543822302</v>
       </c>
       <c r="T27" s="54">
-        <v>7.6646307312252997</v>
+        <v>7.4319788756119403</v>
       </c>
       <c r="U27" s="56">
-        <v>5.8387737341238699</v>
+        <v>8.6090167138194804</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="12" thickBot="1">
-      <c r="A28" s="80"/>
-      <c r="B28" s="69" t="s">
+      <c r="A28" s="82"/>
+      <c r="B28" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="70"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="54">
-        <v>850556.63150000002</v>
+        <v>993316.65330000001</v>
       </c>
       <c r="E28" s="54">
-        <v>848458.90949999995</v>
+        <v>776399.02500000002</v>
       </c>
       <c r="F28" s="55">
-        <v>100.247239079761</v>
+        <v>127.93893620615999</v>
       </c>
       <c r="G28" s="54">
-        <v>762545.93900000001</v>
+        <v>894136.95620000002</v>
       </c>
       <c r="H28" s="55">
-        <v>11.541690539381401</v>
+        <v>11.0922265780742</v>
       </c>
       <c r="I28" s="54">
-        <v>22734.489699999998</v>
+        <v>27017.872299999999</v>
       </c>
       <c r="J28" s="55">
-        <v>2.6728954731569798</v>
+        <v>2.7199657038106801</v>
       </c>
       <c r="K28" s="54">
-        <v>32523.067299999999</v>
+        <v>33042.591399999998</v>
       </c>
       <c r="L28" s="55">
-        <v>4.2650633406625502</v>
+        <v>3.6954731790114099</v>
       </c>
       <c r="M28" s="55">
-        <v>-0.30097338328233297</v>
+        <v>-0.182331919039498</v>
       </c>
       <c r="N28" s="54">
-        <v>850556.63150000002</v>
+        <v>6393508.0088</v>
       </c>
       <c r="O28" s="54">
-        <v>162400568.26449999</v>
+        <v>167943519.64179999</v>
       </c>
       <c r="P28" s="54">
-        <v>38404</v>
+        <v>39046</v>
       </c>
       <c r="Q28" s="54">
-        <v>33233</v>
+        <v>35020</v>
       </c>
       <c r="R28" s="55">
-        <v>15.559835103662</v>
+        <v>11.496287835522599</v>
       </c>
       <c r="S28" s="54">
-        <v>22.147605236433701</v>
+        <v>25.439652033499002</v>
       </c>
       <c r="T28" s="54">
-        <v>22.995661315559801</v>
+        <v>22.907612564249</v>
       </c>
       <c r="U28" s="56">
-        <v>-3.8291096038277099</v>
+        <v>9.9531214731858597</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="12" thickBot="1">
-      <c r="A29" s="80"/>
-      <c r="B29" s="69" t="s">
+      <c r="A29" s="82"/>
+      <c r="B29" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="54">
-        <v>691969.43460000004</v>
+        <v>635152.4743</v>
       </c>
       <c r="E29" s="54">
-        <v>738781.70649999997</v>
+        <v>594326.57209999999</v>
       </c>
       <c r="F29" s="55">
-        <v>93.663585401731893</v>
+        <v>106.869270888519</v>
       </c>
       <c r="G29" s="54">
-        <v>656070.03150000004</v>
+        <v>650158.12430000002</v>
       </c>
       <c r="H29" s="55">
-        <v>5.4718858317490504</v>
+        <v>-2.3080000755440899</v>
       </c>
       <c r="I29" s="54">
-        <v>103639.3229</v>
+        <v>96800.733800000002</v>
       </c>
       <c r="J29" s="55">
-        <v>14.977442314328499</v>
+        <v>15.240550531852</v>
       </c>
       <c r="K29" s="54">
-        <v>92446.038400000005</v>
+        <v>112962.36470000001</v>
       </c>
       <c r="L29" s="55">
-        <v>14.090879625858999</v>
+        <v>17.374598651923701</v>
       </c>
       <c r="M29" s="55">
-        <v>0.121079114840685</v>
+        <v>-0.143070932898061</v>
       </c>
       <c r="N29" s="54">
-        <v>691969.43460000004</v>
+        <v>4594657.1727</v>
       </c>
       <c r="O29" s="54">
-        <v>122717455.5424</v>
+        <v>126620143.28049999</v>
       </c>
       <c r="P29" s="54">
-        <v>104406</v>
+        <v>96512</v>
       </c>
       <c r="Q29" s="54">
-        <v>96822</v>
+        <v>94227</v>
       </c>
       <c r="R29" s="55">
-        <v>7.8329305323170404</v>
+        <v>2.4249949589820301</v>
       </c>
       <c r="S29" s="54">
-        <v>6.6276788173093504</v>
+        <v>6.5810725536720804</v>
       </c>
       <c r="T29" s="54">
-        <v>7.2099497345644599</v>
+        <v>6.4247961444172104</v>
       </c>
       <c r="U29" s="56">
-        <v>-8.7854425856365399</v>
+        <v>2.3746343469147502</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="12" thickBot="1">
-      <c r="A30" s="80"/>
-      <c r="B30" s="69" t="s">
+      <c r="A30" s="82"/>
+      <c r="B30" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="70"/>
+      <c r="C30" s="72"/>
       <c r="D30" s="54">
-        <v>1105783.9046</v>
+        <v>1426558.2283000001</v>
       </c>
       <c r="E30" s="54">
-        <v>1556549.9161</v>
+        <v>1518328.5416999999</v>
       </c>
       <c r="F30" s="55">
-        <v>71.040696681966196</v>
+        <v>93.955832951855797</v>
       </c>
       <c r="G30" s="54">
-        <v>1346007.3717</v>
+        <v>1349811.6625000001</v>
       </c>
       <c r="H30" s="55">
-        <v>-17.847113778923699</v>
+        <v>5.6857240111451297</v>
       </c>
       <c r="I30" s="54">
-        <v>121861.355</v>
+        <v>71893.589800000002</v>
       </c>
       <c r="J30" s="55">
-        <v>11.020358904941901</v>
+        <v>5.03965336806995</v>
       </c>
       <c r="K30" s="54">
-        <v>164178.54689999999</v>
+        <v>143883.554</v>
       </c>
       <c r="L30" s="55">
-        <v>12.1974478262064</v>
+        <v>10.659528139911901</v>
       </c>
       <c r="M30" s="55">
-        <v>-0.25775104420783501</v>
+        <v>-0.50033490415450799</v>
       </c>
       <c r="N30" s="54">
-        <v>1105783.9046</v>
+        <v>7871231.1659000004</v>
       </c>
       <c r="O30" s="54">
-        <v>183209059.04120001</v>
+        <v>189974506.30250001</v>
       </c>
       <c r="P30" s="54">
-        <v>74830</v>
+        <v>80090</v>
       </c>
       <c r="Q30" s="54">
-        <v>64599</v>
+        <v>67294</v>
       </c>
       <c r="R30" s="55">
-        <v>15.8377064660444</v>
+        <v>19.0150682081612</v>
       </c>
       <c r="S30" s="54">
-        <v>14.777280563944901</v>
+        <v>17.811939421900401</v>
       </c>
       <c r="T30" s="54">
-        <v>14.659678731868899</v>
+        <v>15.226120428270001</v>
       </c>
       <c r="U30" s="56">
-        <v>0.79582864768071504</v>
+        <v>14.5173354365389</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="12" thickBot="1">
-      <c r="A31" s="80"/>
-      <c r="B31" s="69" t="s">
+      <c r="A31" s="82"/>
+      <c r="B31" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="70"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="54">
-        <v>1937494.7534</v>
+        <v>1537485.3403</v>
       </c>
       <c r="E31" s="54">
-        <v>856517.77989999996</v>
+        <v>883670.55980000005</v>
       </c>
       <c r="F31" s="55">
-        <v>226.20601683554099</v>
+        <v>173.98852131590499</v>
       </c>
       <c r="G31" s="54">
-        <v>717302.06409999996</v>
+        <v>935116.57330000005</v>
       </c>
       <c r="H31" s="55">
-        <v>170.108626528348</v>
+        <v>64.416435789845707</v>
       </c>
       <c r="I31" s="54">
-        <v>-55827.511700000003</v>
+        <v>-11929.3711</v>
       </c>
       <c r="J31" s="55">
-        <v>-2.8814277613929802</v>
+        <v>-0.77590145332197402</v>
       </c>
       <c r="K31" s="54">
-        <v>40170.179100000001</v>
+        <v>44794.895799999998</v>
       </c>
       <c r="L31" s="55">
-        <v>5.6001761476040901</v>
+        <v>4.7903007046405</v>
       </c>
       <c r="M31" s="55">
-        <v>-2.38977502592215</v>
+        <v>-1.2663109465253</v>
       </c>
       <c r="N31" s="54">
-        <v>1937494.7534</v>
+        <v>11327496.898</v>
       </c>
       <c r="O31" s="54">
-        <v>202049560.76969999</v>
+        <v>211439562.91429999</v>
       </c>
       <c r="P31" s="54">
-        <v>40246</v>
+        <v>35954</v>
       </c>
       <c r="Q31" s="54">
-        <v>28859</v>
+        <v>33614</v>
       </c>
       <c r="R31" s="55">
-        <v>39.457361654943</v>
+        <v>6.96138513714524</v>
       </c>
       <c r="S31" s="54">
-        <v>48.141299840978</v>
+        <v>42.7625671775046</v>
       </c>
       <c r="T31" s="54">
-        <v>26.280390380817099</v>
+        <v>35.597500841911099</v>
       </c>
       <c r="U31" s="56">
-        <v>45.409886173353499</v>
+        <v>16.7554635011779</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="12" thickBot="1">
-      <c r="A32" s="80"/>
-      <c r="B32" s="69" t="s">
+      <c r="A32" s="82"/>
+      <c r="B32" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="70"/>
+      <c r="C32" s="72"/>
       <c r="D32" s="54">
-        <v>128218.34759999999</v>
+        <v>227743.375</v>
       </c>
       <c r="E32" s="54">
-        <v>139804.0018</v>
+        <v>124845.35</v>
       </c>
       <c r="F32" s="55">
-        <v>91.712930924127505</v>
+        <v>182.42039050713501</v>
       </c>
       <c r="G32" s="54">
-        <v>126542.1102</v>
+        <v>143118.30489999999</v>
       </c>
       <c r="H32" s="55">
-        <v>1.32464789574847</v>
+        <v>59.129452489763203</v>
       </c>
       <c r="I32" s="54">
-        <v>33620.506800000003</v>
+        <v>53147.137300000002</v>
       </c>
       <c r="J32" s="55">
-        <v>26.221291593060599</v>
+        <v>23.336414198656701</v>
       </c>
       <c r="K32" s="54">
-        <v>36104.383500000004</v>
+        <v>39172.026899999997</v>
       </c>
       <c r="L32" s="55">
-        <v>28.531516854695202</v>
+        <v>27.3703820956868</v>
       </c>
       <c r="M32" s="55">
-        <v>-6.8797094956627003E-2</v>
+        <v>0.35676250390811398</v>
       </c>
       <c r="N32" s="54">
-        <v>128218.34759999999</v>
+        <v>1063038.9494</v>
       </c>
       <c r="O32" s="54">
-        <v>18992387.480599999</v>
+        <v>19927208.082400002</v>
       </c>
       <c r="P32" s="54">
-        <v>21786</v>
+        <v>20950</v>
       </c>
       <c r="Q32" s="54">
-        <v>17222</v>
+        <v>18050</v>
       </c>
       <c r="R32" s="55">
-        <v>26.500987109511101</v>
+        <v>16.066481994459799</v>
       </c>
       <c r="S32" s="54">
-        <v>5.8853551638667003</v>
+        <v>10.8708054892601</v>
       </c>
       <c r="T32" s="54">
-        <v>5.3077797816745997</v>
+        <v>7.8470812963988896</v>
       </c>
       <c r="U32" s="56">
-        <v>9.8137727649495297</v>
+        <v>27.815088733291699</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="12" thickBot="1">
-      <c r="A33" s="80"/>
-      <c r="B33" s="69" t="s">
+      <c r="A33" s="82"/>
+      <c r="B33" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="70"/>
-      <c r="D33" s="57"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="54">
+        <v>8.2905999999999995</v>
+      </c>
       <c r="E33" s="57"/>
       <c r="F33" s="57"/>
       <c r="G33" s="57"/>
       <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
+      <c r="I33" s="54">
+        <v>0</v>
+      </c>
+      <c r="J33" s="55">
+        <v>0</v>
+      </c>
       <c r="K33" s="57"/>
       <c r="L33" s="57"/>
       <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
+      <c r="N33" s="54">
+        <v>8.2905999999999995</v>
+      </c>
       <c r="O33" s="54">
-        <v>327.93490000000003</v>
-      </c>
-      <c r="P33" s="57"/>
+        <v>336.22550000000001</v>
+      </c>
+      <c r="P33" s="54">
+        <v>1</v>
+      </c>
       <c r="Q33" s="57"/>
       <c r="R33" s="57"/>
-      <c r="S33" s="57"/>
+      <c r="S33" s="54">
+        <v>8.2905999999999995</v>
+      </c>
       <c r="T33" s="57"/>
       <c r="U33" s="58"/>
     </row>
     <row r="34" spans="1:21" ht="12" thickBot="1">
-      <c r="A34" s="80"/>
-      <c r="B34" s="69" t="s">
+      <c r="A34" s="82"/>
+      <c r="B34" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="70"/>
+      <c r="C34" s="72"/>
       <c r="D34" s="54">
-        <v>161474.7102</v>
+        <v>217315.31280000001</v>
       </c>
       <c r="E34" s="54">
-        <v>189445.56529999999</v>
+        <v>166459.71530000001</v>
       </c>
       <c r="F34" s="55">
-        <v>85.235413108928597</v>
+        <v>130.551294292644</v>
       </c>
       <c r="G34" s="54">
-        <v>166627.20480000001</v>
+        <v>154486.66949999999</v>
       </c>
       <c r="H34" s="55">
-        <v>-3.0922289107498599</v>
+        <v>40.669297553857902</v>
       </c>
       <c r="I34" s="54">
-        <v>20131.282800000001</v>
+        <v>17439.018899999999</v>
       </c>
       <c r="J34" s="55">
-        <v>12.4671428578913</v>
+        <v>8.0247538359386201</v>
       </c>
       <c r="K34" s="54">
-        <v>17187.5874</v>
+        <v>25224.029900000001</v>
       </c>
       <c r="L34" s="55">
-        <v>10.3149947336811</v>
+        <v>16.327641719274698</v>
       </c>
       <c r="M34" s="55">
-        <v>0.171268679628649</v>
+        <v>-0.30863470392572001</v>
       </c>
       <c r="N34" s="54">
-        <v>161474.7102</v>
+        <v>1265482.0734999999</v>
       </c>
       <c r="O34" s="54">
-        <v>31804647.605300002</v>
+        <v>32908654.968600001</v>
       </c>
       <c r="P34" s="54">
-        <v>10678</v>
+        <v>11977</v>
       </c>
       <c r="Q34" s="54">
-        <v>8650</v>
+        <v>10190</v>
       </c>
       <c r="R34" s="55">
-        <v>23.4450867052023</v>
+        <v>17.5368007850834</v>
       </c>
       <c r="S34" s="54">
-        <v>15.122186757819801</v>
+        <v>18.144386140101901</v>
       </c>
       <c r="T34" s="54">
-        <v>31.021678427745702</v>
+        <v>14.3841330520118</v>
       </c>
       <c r="U34" s="56">
-        <v>-105.140162097946</v>
+        <v>20.7240578934735</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="12" customHeight="1" thickBot="1">
-      <c r="A35" s="80"/>
-      <c r="B35" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="70"/>
+    <row r="35" spans="1:21" ht="12" thickBot="1">
+      <c r="A35" s="82"/>
+      <c r="B35" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="72"/>
       <c r="D35" s="54">
-        <v>6231.9273000000003</v>
+        <v>6393.5562</v>
       </c>
       <c r="E35" s="57"/>
       <c r="F35" s="57"/>
       <c r="G35" s="57"/>
       <c r="H35" s="57"/>
       <c r="I35" s="54">
-        <v>72.553200000000004</v>
+        <v>212.55549999999999</v>
       </c>
       <c r="J35" s="55">
-        <v>1.1642176891248399</v>
+        <v>3.3245269666981301</v>
       </c>
       <c r="K35" s="57"/>
       <c r="L35" s="57"/>
       <c r="M35" s="57"/>
       <c r="N35" s="54">
-        <v>6231.9273000000003</v>
+        <v>48756.587299999999</v>
       </c>
       <c r="O35" s="54">
-        <v>228511.97719999999</v>
+        <v>271036.6372</v>
       </c>
       <c r="P35" s="54">
-        <v>1037</v>
+        <v>843</v>
       </c>
       <c r="Q35" s="54">
-        <v>819</v>
+        <v>886</v>
       </c>
       <c r="R35" s="55">
-        <v>26.617826617826601</v>
+        <v>-4.8532731376975198</v>
       </c>
       <c r="S35" s="54">
-        <v>6.0095730954677</v>
+        <v>7.5842896797153001</v>
       </c>
       <c r="T35" s="54">
-        <v>5.8579343101343104</v>
+        <v>6.1968415349887103</v>
       </c>
       <c r="U35" s="56">
-        <v>2.5232871441026199</v>
+        <v>18.293712441356401</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="12" customHeight="1" thickBot="1">
-      <c r="A36" s="80"/>
-      <c r="B36" s="69" t="s">
+    <row r="36" spans="1:21" ht="12" thickBot="1">
+      <c r="A36" s="82"/>
+      <c r="B36" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="70"/>
+      <c r="C36" s="72"/>
       <c r="D36" s="54">
-        <v>72582.929999999993</v>
+        <v>57870.17</v>
       </c>
       <c r="E36" s="57"/>
       <c r="F36" s="57"/>
       <c r="G36" s="54">
-        <v>135327.35</v>
+        <v>201610.45</v>
       </c>
       <c r="H36" s="55">
-        <v>-46.364921798882499</v>
+        <v>-71.296046410292703</v>
       </c>
       <c r="I36" s="54">
-        <v>376.67</v>
+        <v>62.41</v>
       </c>
       <c r="J36" s="55">
-        <v>0.51895121897118202</v>
+        <v>0.10784485340202001</v>
       </c>
       <c r="K36" s="54">
-        <v>1673.39</v>
+        <v>8655.18</v>
       </c>
       <c r="L36" s="55">
-        <v>1.23654974400962</v>
+        <v>4.2930215174858199</v>
       </c>
       <c r="M36" s="55">
-        <v>-0.77490602907869699</v>
+        <v>-0.99278928918867104</v>
       </c>
       <c r="N36" s="54">
-        <v>72582.929999999993</v>
+        <v>550752.59</v>
       </c>
       <c r="O36" s="54">
-        <v>25770526.75</v>
+        <v>26248696.41</v>
       </c>
       <c r="P36" s="54">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="Q36" s="54">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="R36" s="55">
-        <v>54.838709677419402</v>
+        <v>-9.6153846153846203</v>
       </c>
       <c r="S36" s="54">
-        <v>756.07218750000004</v>
+        <v>1231.28021276596</v>
       </c>
       <c r="T36" s="54">
-        <v>4985.2504838709701</v>
+        <v>1087.8875</v>
       </c>
       <c r="U36" s="56">
-        <v>-559.36170729345497</v>
+        <v>11.6458228824971</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="12" thickBot="1">
-      <c r="A37" s="80"/>
-      <c r="B37" s="69" t="s">
+      <c r="A37" s="82"/>
+      <c r="B37" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="70"/>
+      <c r="C37" s="72"/>
       <c r="D37" s="54">
-        <v>109345.32</v>
+        <v>106335.11</v>
       </c>
       <c r="E37" s="57"/>
       <c r="F37" s="57"/>
       <c r="G37" s="54">
-        <v>327211.27</v>
+        <v>287359.83</v>
       </c>
       <c r="H37" s="55">
-        <v>-66.582654686680002</v>
+        <v>-62.995833481666502</v>
       </c>
       <c r="I37" s="54">
-        <v>-9475.4699999999993</v>
+        <v>-8079.05</v>
       </c>
       <c r="J37" s="55">
-        <v>-8.6656383647695208</v>
+        <v>-7.5977257182505404</v>
       </c>
       <c r="K37" s="54">
-        <v>-50705.13</v>
+        <v>-46880.69</v>
       </c>
       <c r="L37" s="55">
-        <v>-15.4961441273096</v>
+        <v>-16.314280948732499</v>
       </c>
       <c r="M37" s="55">
-        <v>-0.81312600914345401</v>
+        <v>-0.82766785215831895</v>
       </c>
       <c r="N37" s="54">
-        <v>109345.32</v>
+        <v>936807.22</v>
       </c>
       <c r="O37" s="54">
-        <v>69575838.689999998</v>
+        <v>70403300.590000004</v>
       </c>
       <c r="P37" s="54">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q37" s="54">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="R37" s="55">
-        <v>-43.809523809523803</v>
+        <v>0</v>
       </c>
       <c r="S37" s="54">
-        <v>1853.31050847458</v>
+        <v>1635.9247692307699</v>
       </c>
       <c r="T37" s="54">
-        <v>1858.03104761905</v>
+        <v>1735.3064615384601</v>
       </c>
       <c r="U37" s="56">
-        <v>-0.254708486402352</v>
+        <v>-6.07495492316695</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="12" thickBot="1">
-      <c r="A38" s="80"/>
-      <c r="B38" s="69" t="s">
+      <c r="A38" s="82"/>
+      <c r="B38" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="70"/>
+      <c r="C38" s="72"/>
       <c r="D38" s="54">
-        <v>176146.26</v>
+        <v>318512.09999999998</v>
       </c>
       <c r="E38" s="57"/>
       <c r="F38" s="57"/>
       <c r="G38" s="54">
-        <v>707763.17</v>
+        <v>661649.53</v>
       </c>
       <c r="H38" s="55">
-        <v>-75.112259656008902</v>
+        <v>-51.860904367301501</v>
       </c>
       <c r="I38" s="54">
-        <v>-1657.98</v>
+        <v>-5597.41</v>
       </c>
       <c r="J38" s="55">
-        <v>-0.94125188919708003</v>
+        <v>-1.75736180823272</v>
       </c>
       <c r="K38" s="54">
-        <v>-93824.42</v>
+        <v>-82816.53</v>
       </c>
       <c r="L38" s="55">
-        <v>-13.256471087637999</v>
+        <v>-12.516676313515999</v>
       </c>
       <c r="M38" s="55">
-        <v>-0.98232890754880198</v>
+        <v>-0.93241192307864096</v>
       </c>
       <c r="N38" s="54">
-        <v>176146.26</v>
+        <v>1940646.75</v>
       </c>
       <c r="O38" s="54">
-        <v>41391135</v>
+        <v>43155635.490000002</v>
       </c>
       <c r="P38" s="54">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="Q38" s="54">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="R38" s="55">
-        <v>12.1212121212121</v>
+        <v>50.602409638554199</v>
       </c>
       <c r="S38" s="54">
-        <v>2380.3548648648698</v>
+        <v>2548.0967999999998</v>
       </c>
       <c r="T38" s="54">
-        <v>2466.0198484848502</v>
+        <v>2466.0186746988002</v>
       </c>
       <c r="U38" s="56">
-        <v>-3.59883246336243</v>
+        <v>3.2211541296706101</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="12" thickBot="1">
-      <c r="A39" s="80"/>
-      <c r="B39" s="69" t="s">
+      <c r="A39" s="82"/>
+      <c r="B39" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="70"/>
+      <c r="C39" s="72"/>
       <c r="D39" s="54">
-        <v>118365.07</v>
+        <v>122942.88</v>
       </c>
       <c r="E39" s="57"/>
       <c r="F39" s="57"/>
       <c r="G39" s="54">
-        <v>354446.01</v>
+        <v>274048.03000000003</v>
       </c>
       <c r="H39" s="55">
-        <v>-66.605613644797401</v>
+        <v>-55.138199679815301</v>
       </c>
       <c r="I39" s="54">
-        <v>-11048.54</v>
+        <v>-10440.82</v>
       </c>
       <c r="J39" s="55">
-        <v>-9.3342909356620201</v>
+        <v>-8.4924153395462998</v>
       </c>
       <c r="K39" s="54">
-        <v>-60042.05</v>
+        <v>-40063.410000000003</v>
       </c>
       <c r="L39" s="55">
-        <v>-16.939688501501301</v>
+        <v>-14.619119867418901</v>
       </c>
       <c r="M39" s="55">
-        <v>-0.81598662937058297</v>
+        <v>-0.73939262783672199</v>
       </c>
       <c r="N39" s="54">
-        <v>118365.07</v>
+        <v>1011143.57</v>
       </c>
       <c r="O39" s="54">
-        <v>42838393.469999999</v>
+        <v>43731171.969999999</v>
       </c>
       <c r="P39" s="54">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="Q39" s="54">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="R39" s="55">
-        <v>-19.4444444444444</v>
+        <v>7.6086956521738998</v>
       </c>
       <c r="S39" s="54">
-        <v>1360.5180459770099</v>
+        <v>1241.8472727272699</v>
       </c>
       <c r="T39" s="54">
-        <v>1511.3809259259299</v>
+        <v>1687.0695652173899</v>
       </c>
       <c r="U39" s="56">
-        <v>-11.088634979521901</v>
+        <v>-35.851614145139401</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="12" thickBot="1">
-      <c r="A40" s="80"/>
-      <c r="B40" s="69" t="s">
+      <c r="A40" s="82"/>
+      <c r="B40" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="70"/>
+      <c r="C40" s="72"/>
       <c r="D40" s="54">
-        <v>0.49</v>
+        <v>1.22</v>
       </c>
       <c r="E40" s="57"/>
       <c r="F40" s="57"/>
       <c r="G40" s="54">
-        <v>0.09</v>
+        <v>19.25</v>
       </c>
       <c r="H40" s="55">
-        <v>444.44444444444503</v>
+        <v>-93.662337662337706</v>
       </c>
       <c r="I40" s="54">
-        <v>-2717.55</v>
+        <v>-7943.23</v>
       </c>
       <c r="J40" s="55">
-        <v>-554602.04081632697</v>
+        <v>-651084.42622950801</v>
       </c>
       <c r="K40" s="54">
-        <v>0.09</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="L40" s="55">
-        <v>100</v>
+        <v>90.493506493506501</v>
       </c>
       <c r="M40" s="55">
-        <v>-30196</v>
+        <v>-456.98335246842697</v>
       </c>
       <c r="N40" s="54">
-        <v>0.49</v>
+        <v>7.99</v>
       </c>
       <c r="O40" s="54">
-        <v>1253.75</v>
+        <v>1261.25</v>
       </c>
       <c r="P40" s="54">
-        <v>18</v>
-      </c>
-      <c r="Q40" s="57"/>
-      <c r="R40" s="57"/>
+        <v>5</v>
+      </c>
+      <c r="Q40" s="54">
+        <v>2</v>
+      </c>
+      <c r="R40" s="55">
+        <v>150</v>
+      </c>
       <c r="S40" s="54">
-        <v>2.7222222222221999E-2</v>
-      </c>
-      <c r="T40" s="57"/>
-      <c r="U40" s="58"/>
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="T40" s="54">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="U40" s="56">
+        <v>-82.377049180327901</v>
+      </c>
     </row>
-    <row r="41" spans="1:21" ht="12" customHeight="1" thickBot="1">
-      <c r="A41" s="80"/>
-      <c r="B41" s="69" t="s">
+    <row r="41" spans="1:21" ht="12" thickBot="1">
+      <c r="A41" s="82"/>
+      <c r="B41" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="70"/>
+      <c r="C41" s="72"/>
       <c r="D41" s="54">
-        <v>117956.41009999999</v>
+        <v>33008.546799999996</v>
       </c>
       <c r="E41" s="57"/>
       <c r="F41" s="57"/>
       <c r="G41" s="54">
-        <v>217753.8463</v>
+        <v>149849.57279999999</v>
       </c>
       <c r="H41" s="55">
-        <v>-45.830389632938498</v>
+        <v>-77.972211609801803</v>
       </c>
       <c r="I41" s="54">
-        <v>9643.7060999999994</v>
+        <v>1741.4918</v>
       </c>
       <c r="J41" s="55">
-        <v>8.1756524226401499</v>
+        <v>5.27588145746543</v>
       </c>
       <c r="K41" s="54">
-        <v>17565.205600000001</v>
+        <v>7766.0182999999997</v>
       </c>
       <c r="L41" s="55">
-        <v>8.0665420604329405</v>
+        <v>5.1825428360513799</v>
       </c>
       <c r="M41" s="55">
-        <v>-0.45097675941806198</v>
+        <v>-0.77575486784521197</v>
       </c>
       <c r="N41" s="54">
-        <v>117956.41009999999</v>
+        <v>379172.22090000001</v>
       </c>
       <c r="O41" s="54">
-        <v>13290068.7896</v>
+        <v>13551284.600400001</v>
       </c>
       <c r="P41" s="54">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="Q41" s="54">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="R41" s="55">
-        <v>81.25</v>
+        <v>25.675675675675699</v>
       </c>
       <c r="S41" s="54">
-        <v>677.91040287356304</v>
+        <v>354.93061075268798</v>
       </c>
       <c r="T41" s="54">
-        <v>597.66738124999995</v>
+        <v>313.51928513513502</v>
       </c>
       <c r="U41" s="56">
-        <v>11.8368181522846</v>
+        <v>11.6674426952732</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="12" thickBot="1">
-      <c r="A42" s="80"/>
-      <c r="B42" s="69" t="s">
+      <c r="A42" s="82"/>
+      <c r="B42" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="70"/>
+      <c r="C42" s="72"/>
       <c r="D42" s="54">
-        <v>502550.76439999999</v>
+        <v>469741.14230000001</v>
       </c>
       <c r="E42" s="54">
-        <v>1305373.6505</v>
+        <v>955140.53350000002</v>
       </c>
       <c r="F42" s="55">
-        <v>38.4986141100295</v>
+        <v>49.180317013527699</v>
       </c>
       <c r="G42" s="54">
-        <v>535515.67660000001</v>
+        <v>559653.2683</v>
       </c>
       <c r="H42" s="55">
-        <v>-6.1557324351912301</v>
+        <v>-16.065684074912401</v>
       </c>
       <c r="I42" s="54">
-        <v>33679.054499999998</v>
+        <v>22550.2703</v>
       </c>
       <c r="J42" s="55">
-        <v>6.7016223804195603</v>
+        <v>4.8005738202080401</v>
       </c>
       <c r="K42" s="54">
-        <v>29404.400699999998</v>
+        <v>35659.860099999998</v>
       </c>
       <c r="L42" s="55">
-        <v>5.4908571279722604</v>
+        <v>6.3717773342627302</v>
       </c>
       <c r="M42" s="55">
-        <v>0.14537462754682201</v>
+        <v>-0.36762875017560698</v>
       </c>
       <c r="N42" s="54">
-        <v>502550.76439999999</v>
+        <v>2783936.3048999999</v>
       </c>
       <c r="O42" s="54">
-        <v>77593629.306899995</v>
+        <v>79875014.847399995</v>
       </c>
       <c r="P42" s="54">
-        <v>2346</v>
+        <v>2320</v>
       </c>
       <c r="Q42" s="54">
-        <v>1751</v>
+        <v>2239</v>
       </c>
       <c r="R42" s="55">
-        <v>33.980582524271902</v>
+        <v>3.6176864671728399</v>
       </c>
       <c r="S42" s="54">
-        <v>214.216012105712</v>
+        <v>202.47463030172401</v>
       </c>
       <c r="T42" s="54">
-        <v>210.31830217018799</v>
+        <v>200.73074609200501</v>
       </c>
       <c r="U42" s="56">
-        <v>1.81952315198545</v>
+        <v>0.86128529145606803</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="12" thickBot="1">
-      <c r="A43" s="80"/>
-      <c r="B43" s="69" t="s">
+      <c r="A43" s="82"/>
+      <c r="B43" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="70"/>
+      <c r="C43" s="72"/>
       <c r="D43" s="54">
-        <v>75362.45</v>
+        <v>58762.42</v>
       </c>
       <c r="E43" s="57"/>
       <c r="F43" s="57"/>
       <c r="G43" s="54">
-        <v>121797.48</v>
+        <v>148441.91</v>
       </c>
       <c r="H43" s="55">
-        <v>-38.1247871466635</v>
+        <v>-60.4138615570225</v>
       </c>
       <c r="I43" s="54">
-        <v>-14510.52</v>
+        <v>-5063.26</v>
       </c>
       <c r="J43" s="55">
-        <v>-19.254310336248398</v>
+        <v>-8.6164933302610809</v>
       </c>
       <c r="K43" s="54">
-        <v>-11988.93</v>
+        <v>-15735.86</v>
       </c>
       <c r="L43" s="55">
-        <v>-9.8433317339570596</v>
+        <v>-10.6006854802663</v>
       </c>
       <c r="M43" s="55">
-        <v>0.21032652622043799</v>
+        <v>-0.67823430050851996</v>
       </c>
       <c r="N43" s="54">
-        <v>75362.45</v>
+        <v>463728.48</v>
       </c>
       <c r="O43" s="54">
-        <v>33552646.510000002</v>
+        <v>33941012.539999999</v>
       </c>
       <c r="P43" s="54">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="Q43" s="54">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="R43" s="55">
-        <v>-3.17460317460317</v>
+        <v>8.5714285714285605</v>
       </c>
       <c r="S43" s="54">
-        <v>1235.45</v>
+        <v>1546.3794736842101</v>
       </c>
       <c r="T43" s="54">
-        <v>1391.9152380952401</v>
+        <v>1560.3671428571399</v>
       </c>
       <c r="U43" s="56">
-        <v>-12.6646354037183</v>
+        <v>-0.90454312223939803</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="12" thickBot="1">
-      <c r="A44" s="80"/>
-      <c r="B44" s="69" t="s">
+      <c r="A44" s="82"/>
+      <c r="B44" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="70"/>
+      <c r="C44" s="72"/>
       <c r="D44" s="54">
-        <v>47512.02</v>
+        <v>25055.59</v>
       </c>
       <c r="E44" s="57"/>
       <c r="F44" s="57"/>
       <c r="G44" s="54">
-        <v>71450.47</v>
+        <v>74403.47</v>
       </c>
       <c r="H44" s="55">
-        <v>-33.503558479041502</v>
+        <v>-66.324702329071499</v>
       </c>
       <c r="I44" s="54">
-        <v>6305.83</v>
+        <v>3490.87</v>
       </c>
       <c r="J44" s="55">
-        <v>13.272073045936599</v>
+        <v>13.9324996936811</v>
       </c>
       <c r="K44" s="54">
-        <v>9445.58</v>
+        <v>9855.41</v>
       </c>
       <c r="L44" s="55">
-        <v>13.2197590862593</v>
+        <v>13.245901031228801</v>
       </c>
       <c r="M44" s="55">
-        <v>-0.33240415093620501</v>
+        <v>-0.645791499288208</v>
       </c>
       <c r="N44" s="54">
-        <v>47512.02</v>
+        <v>286598.52</v>
       </c>
       <c r="O44" s="54">
-        <v>13580752.92</v>
+        <v>13819839.42</v>
       </c>
       <c r="P44" s="54">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="Q44" s="54">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="R44" s="55">
-        <v>17.948717948717999</v>
+        <v>29.1666666666667</v>
       </c>
       <c r="S44" s="54">
-        <v>1032.8699999999999</v>
+        <v>808.24483870967697</v>
       </c>
       <c r="T44" s="54">
-        <v>1591.23435897436</v>
+        <v>1417.94916666667</v>
       </c>
       <c r="U44" s="56">
-        <v>-54.059500128221302</v>
+        <v>-75.435598070796402</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="12" thickBot="1">
-      <c r="A45" s="80"/>
-      <c r="B45" s="69" t="s">
+      <c r="A45" s="82"/>
+      <c r="B45" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="70"/>
+      <c r="C45" s="72"/>
       <c r="D45" s="57"/>
       <c r="E45" s="57"/>
       <c r="F45" s="57"/>
@@ -60786,60 +60951,60 @@
       <c r="U45" s="58"/>
     </row>
     <row r="46" spans="1:21" ht="12" thickBot="1">
-      <c r="A46" s="81"/>
-      <c r="B46" s="69" t="s">
+      <c r="A46" s="83"/>
+      <c r="B46" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="70"/>
+      <c r="C46" s="72"/>
       <c r="D46" s="59">
-        <v>11789.516600000001</v>
+        <v>11417.873100000001</v>
       </c>
       <c r="E46" s="60"/>
       <c r="F46" s="60"/>
       <c r="G46" s="59">
-        <v>20689.6302</v>
+        <v>19548.717799999999</v>
       </c>
       <c r="H46" s="61">
-        <v>-43.017267655175402</v>
+        <v>-41.592726352620403</v>
       </c>
       <c r="I46" s="59">
-        <v>1456.482</v>
+        <v>966.76390000000004</v>
       </c>
       <c r="J46" s="61">
-        <v>12.354043421933</v>
+        <v>8.4671102186273206</v>
       </c>
       <c r="K46" s="59">
-        <v>2496.6120999999998</v>
+        <v>3324.4104000000002</v>
       </c>
       <c r="L46" s="61">
-        <v>12.0669730481698</v>
+        <v>17.005772112583301</v>
       </c>
       <c r="M46" s="61">
-        <v>-0.41661662218171602</v>
+        <v>-0.70919237287911296</v>
       </c>
       <c r="N46" s="59">
-        <v>11789.516600000001</v>
+        <v>78317.196100000001</v>
       </c>
       <c r="O46" s="59">
-        <v>4742780.6780000003</v>
+        <v>4809308.3574999999</v>
       </c>
       <c r="P46" s="59">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q46" s="59">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="R46" s="61">
-        <v>0</v>
+        <v>-28.571428571428601</v>
       </c>
       <c r="S46" s="59">
-        <v>906.88589230769196</v>
+        <v>761.19154000000003</v>
       </c>
       <c r="T46" s="59">
-        <v>5912.4322615384599</v>
+        <v>671.23461904761905</v>
       </c>
       <c r="U46" s="62">
-        <v>-551.94886277186299</v>
+        <v>11.817908663617199</v>
       </c>
     </row>
   </sheetData>
@@ -60901,7 +61066,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B34" sqref="B34:E40"/>
     </sheetView>
   </sheetViews>
@@ -60949,22 +61114,22 @@
         <v>12</v>
       </c>
       <c r="C2" s="37">
-        <v>68810</v>
+        <v>50143</v>
       </c>
       <c r="D2" s="37">
-        <v>515806.89219401701</v>
+        <v>452264.66829914501</v>
       </c>
       <c r="E2" s="37">
-        <v>396134.57583504298</v>
+        <v>341122.80624615401</v>
       </c>
       <c r="F2" s="37">
-        <v>119672.316358974</v>
+        <v>111141.862052991</v>
       </c>
       <c r="G2" s="37">
-        <v>396134.57583504298</v>
+        <v>341122.80624615401</v>
       </c>
       <c r="H2" s="37">
-        <v>0.232009921096518</v>
+        <v>0.245745179412242</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -60975,22 +61140,22 @@
         <v>13</v>
       </c>
       <c r="C3" s="37">
-        <v>33061</v>
+        <v>4823</v>
       </c>
       <c r="D3" s="37">
-        <v>380187.24903333298</v>
+        <v>48594.920090598302</v>
       </c>
       <c r="E3" s="37">
-        <v>291136.43879572599</v>
+        <v>37904.178466666701</v>
       </c>
       <c r="F3" s="37">
-        <v>89050.810237606798</v>
+        <v>10690.741623931601</v>
       </c>
       <c r="G3" s="37">
-        <v>291136.43879572599</v>
+        <v>37904.178466666701</v>
       </c>
       <c r="H3" s="37">
-        <v>0.234228818730844</v>
+        <v>0.21999710266011899</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -61001,22 +61166,22 @@
         <v>14</v>
       </c>
       <c r="C4" s="37">
-        <v>185425</v>
+        <v>105591</v>
       </c>
       <c r="D4" s="37">
-        <v>1662650.9211164401</v>
+        <v>99786.655855343794</v>
       </c>
       <c r="E4" s="37">
-        <v>1374708.0171943</v>
+        <v>71818.620230735294</v>
       </c>
       <c r="F4" s="37">
-        <v>287942.90392214101</v>
+        <v>27968.035624608401</v>
       </c>
       <c r="G4" s="37">
-        <v>1374708.0171943</v>
+        <v>71818.620230735294</v>
       </c>
       <c r="H4" s="37">
-        <v>0.17318301771293801</v>
+        <v>0.28027831361692701</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -61027,22 +61192,22 @@
         <v>15</v>
       </c>
       <c r="C5" s="37">
-        <v>4595</v>
+        <v>3286</v>
       </c>
       <c r="D5" s="37">
-        <v>79740.773137720302</v>
+        <v>67401.374739263294</v>
       </c>
       <c r="E5" s="37">
-        <v>60488.315673595003</v>
+        <v>51789.588422350796</v>
       </c>
       <c r="F5" s="37">
-        <v>19252.457464125298</v>
+        <v>15611.786316912499</v>
       </c>
       <c r="G5" s="37">
-        <v>60488.315673595003</v>
+        <v>51789.588422350796</v>
       </c>
       <c r="H5" s="37">
-        <v>0.241438058681402</v>
+        <v>0.23162415273138601</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -61053,22 +61218,22 @@
         <v>16</v>
       </c>
       <c r="C6" s="37">
-        <v>12067</v>
+        <v>4619</v>
       </c>
       <c r="D6" s="37">
-        <v>904708.58645213698</v>
+        <v>260685.912826496</v>
       </c>
       <c r="E6" s="37">
-        <v>632513.82323333295</v>
+        <v>220244.56342734999</v>
       </c>
       <c r="F6" s="37">
-        <v>272194.76321880298</v>
+        <v>40441.3493991453</v>
       </c>
       <c r="G6" s="37">
-        <v>632513.82323333295</v>
+        <v>220244.56342734999</v>
       </c>
       <c r="H6" s="37">
-        <v>0.30086457373664299</v>
+        <v>0.15513438743451299</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -61079,22 +61244,22 @@
         <v>17</v>
       </c>
       <c r="C7" s="37">
-        <v>66756</v>
+        <v>18572</v>
       </c>
       <c r="D7" s="37">
-        <v>750998.530275214</v>
+        <v>205993.04352393199</v>
       </c>
       <c r="E7" s="37">
-        <v>521297.38374871801</v>
+        <v>144350.762141026</v>
       </c>
       <c r="F7" s="37">
-        <v>229701.14652649601</v>
+        <v>61642.281382906003</v>
       </c>
       <c r="G7" s="37">
-        <v>521297.38374871801</v>
+        <v>144350.762141026</v>
       </c>
       <c r="H7" s="37">
-        <v>0.30586098010380702</v>
+        <v>0.29924448092221401</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -61105,22 +61270,22 @@
         <v>18</v>
       </c>
       <c r="C8" s="37">
-        <v>44831</v>
+        <v>63889</v>
       </c>
       <c r="D8" s="37">
-        <v>143478.49600940201</v>
+        <v>148356.665644444</v>
       </c>
       <c r="E8" s="37">
-        <v>109459.225372649</v>
+        <v>117754.170852991</v>
       </c>
       <c r="F8" s="37">
-        <v>34019.270636752102</v>
+        <v>30602.494791452998</v>
       </c>
       <c r="G8" s="37">
-        <v>109459.225372649</v>
+        <v>117754.170852991</v>
       </c>
       <c r="H8" s="37">
-        <v>0.23710361889019901</v>
+        <v>0.20627650708189799</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -61131,22 +61296,22 @@
         <v>19</v>
       </c>
       <c r="C9" s="37">
-        <v>22595</v>
+        <v>18923</v>
       </c>
       <c r="D9" s="37">
-        <v>139489.312200855</v>
+        <v>115624.472710256</v>
       </c>
       <c r="E9" s="37">
-        <v>110099.95122735</v>
+        <v>93625.827189743606</v>
       </c>
       <c r="F9" s="37">
-        <v>29389.360973504299</v>
+        <v>21998.6455205128</v>
       </c>
       <c r="G9" s="37">
-        <v>110099.95122735</v>
+        <v>93625.827189743606</v>
       </c>
       <c r="H9" s="37">
-        <v>0.21069256497003599</v>
+        <v>0.190259423501453</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -61157,22 +61322,22 @@
         <v>21</v>
       </c>
       <c r="C10" s="37">
-        <v>321076</v>
+        <v>210906</v>
       </c>
       <c r="D10" s="37">
-        <v>1338579.9686350401</v>
+        <v>1017211.1517923099</v>
       </c>
       <c r="E10" s="37">
-        <v>1402757.94943333</v>
+        <v>1022997.9693</v>
       </c>
       <c r="F10" s="37">
-        <v>-64177.980798290599</v>
+        <v>-5786.8175076923098</v>
       </c>
       <c r="G10" s="37">
-        <v>1402757.94943333</v>
+        <v>1022997.9693</v>
       </c>
       <c r="H10" s="37">
-        <v>-4.7944823844729499E-2</v>
+        <v>-5.6889049018938103E-3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -61183,22 +61348,22 @@
         <v>22</v>
       </c>
       <c r="C11" s="37">
-        <v>33559</v>
+        <v>62506</v>
       </c>
       <c r="D11" s="37">
-        <v>615793.90527435904</v>
+        <v>861251.63360341894</v>
       </c>
       <c r="E11" s="37">
-        <v>554064.38024615403</v>
+        <v>763352.90708717902</v>
       </c>
       <c r="F11" s="37">
-        <v>61729.525028205098</v>
+        <v>97898.726516239301</v>
       </c>
       <c r="G11" s="37">
-        <v>554064.38024615403</v>
+        <v>763352.90708717902</v>
       </c>
       <c r="H11" s="37">
-        <v>0.10024380640906499</v>
+        <v>0.113670294135336</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -61209,22 +61374,22 @@
         <v>23</v>
       </c>
       <c r="C12" s="37">
-        <v>261897.32500000001</v>
+        <v>147704.80900000001</v>
       </c>
       <c r="D12" s="37">
-        <v>2153027.1554666702</v>
+        <v>1381281.3614461501</v>
       </c>
       <c r="E12" s="37">
-        <v>1854078.03621197</v>
+        <v>1181556.86240342</v>
       </c>
       <c r="F12" s="37">
-        <v>298949.11925470101</v>
+        <v>199724.499042735</v>
       </c>
       <c r="G12" s="37">
-        <v>1854078.03621197</v>
+        <v>1181556.86240342</v>
       </c>
       <c r="H12" s="37">
-        <v>0.13885060320565401</v>
+        <v>0.14459363936803599</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -61235,22 +61400,22 @@
         <v>24</v>
       </c>
       <c r="C13" s="37">
-        <v>33996</v>
+        <v>14331</v>
       </c>
       <c r="D13" s="37">
-        <v>2340868.6575717898</v>
+        <v>516526.02005299099</v>
       </c>
       <c r="E13" s="37">
-        <v>2772643.3030282101</v>
+        <v>479377.78046068398</v>
       </c>
       <c r="F13" s="37">
-        <v>-431774.64545641001</v>
+        <v>37148.239592307698</v>
       </c>
       <c r="G13" s="37">
-        <v>2772643.3030282101</v>
+        <v>479377.78046068398</v>
       </c>
       <c r="H13" s="37">
-        <v>-0.184450607281954</v>
+        <v>7.1919396410071598E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -61261,22 +61426,22 @@
         <v>25</v>
       </c>
       <c r="C14" s="37">
-        <v>76100</v>
+        <v>71757</v>
       </c>
       <c r="D14" s="37">
-        <v>1025898.6316</v>
+        <v>1007799.3358999999</v>
       </c>
       <c r="E14" s="37">
-        <v>902154.17460000003</v>
+        <v>903918.07140000002</v>
       </c>
       <c r="F14" s="37">
-        <v>123744.45699999999</v>
+        <v>103881.2645</v>
       </c>
       <c r="G14" s="37">
-        <v>902154.17460000003</v>
+        <v>903918.07140000002</v>
       </c>
       <c r="H14" s="37">
-        <v>0.120620549816902</v>
+        <v>0.10307732978136</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -61287,22 +61452,22 @@
         <v>26</v>
       </c>
       <c r="C15" s="37">
-        <v>54858</v>
+        <v>43925</v>
       </c>
       <c r="D15" s="37">
-        <v>301593.10463734198</v>
+        <v>302612.58570158802</v>
       </c>
       <c r="E15" s="37">
-        <v>267442.39985300699</v>
+        <v>266448.63255119103</v>
       </c>
       <c r="F15" s="37">
-        <v>34150.704784335503</v>
+        <v>36163.953150397101</v>
       </c>
       <c r="G15" s="37">
-        <v>267442.39985300699</v>
+        <v>266448.63255119103</v>
       </c>
       <c r="H15" s="37">
-        <v>0.113234368621925</v>
+        <v>0.119505780192695</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -61313,22 +61478,22 @@
         <v>27</v>
       </c>
       <c r="C16" s="37">
-        <v>207773.91</v>
+        <v>209149.05</v>
       </c>
       <c r="D16" s="37">
-        <v>1609824.73339402</v>
+        <v>2735836.35406239</v>
       </c>
       <c r="E16" s="37">
-        <v>1525435.27052137</v>
+        <v>2561488.7995880302</v>
       </c>
       <c r="F16" s="37">
-        <v>84389.462872649601</v>
+        <v>174347.554474359</v>
       </c>
       <c r="G16" s="37">
-        <v>1525435.27052137</v>
+        <v>2561488.7995880302</v>
       </c>
       <c r="H16" s="37">
-        <v>5.2421522121063498E-2</v>
+        <v>6.3727333038569201E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -61339,22 +61504,22 @@
         <v>29</v>
       </c>
       <c r="C17" s="37">
-        <v>306282.08</v>
+        <v>164535</v>
       </c>
       <c r="D17" s="37">
-        <v>6909392.1997222202</v>
+        <v>2267266.9663974401</v>
       </c>
       <c r="E17" s="37">
-        <v>5967205.7101401696</v>
+        <v>2082531.7668829099</v>
       </c>
       <c r="F17" s="37">
-        <v>942186.48958205106</v>
+        <v>184735.19951452999</v>
       </c>
       <c r="G17" s="37">
-        <v>5967205.7101401696</v>
+        <v>2082531.7668829099</v>
       </c>
       <c r="H17" s="37">
-        <v>0.13636315067191099</v>
+        <v>8.1479244505583803E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -61365,22 +61530,22 @@
         <v>31</v>
       </c>
       <c r="C18" s="37">
-        <v>37647.898000000001</v>
+        <v>30452.606</v>
       </c>
       <c r="D18" s="37">
-        <v>273962.796968724</v>
+        <v>298576.70276413998</v>
       </c>
       <c r="E18" s="37">
-        <v>231865.637332668</v>
+        <v>254355.87121121501</v>
       </c>
       <c r="F18" s="37">
-        <v>42097.159636055898</v>
+        <v>44220.831552925003</v>
       </c>
       <c r="G18" s="37">
-        <v>231865.637332668</v>
+        <v>254355.87121121501</v>
       </c>
       <c r="H18" s="37">
-        <v>0.153660132331259</v>
+        <v>0.148105432016433</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -61391,22 +61556,22 @@
         <v>32</v>
       </c>
       <c r="C19" s="37">
-        <v>14575.931</v>
+        <v>19949.460999999999</v>
       </c>
       <c r="D19" s="37">
-        <v>254849.18037455599</v>
+        <v>326627.29618101497</v>
       </c>
       <c r="E19" s="37">
-        <v>237094.12234510301</v>
+        <v>312707.62001997302</v>
       </c>
       <c r="F19" s="37">
-        <v>17755.058029452801</v>
+        <v>13919.676161042</v>
       </c>
       <c r="G19" s="37">
-        <v>237094.12234510301</v>
+        <v>312707.62001997302</v>
       </c>
       <c r="H19" s="37">
-        <v>6.9668884174388504E-2</v>
+        <v>4.26163897622562E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -61417,22 +61582,22 @@
         <v>33</v>
       </c>
       <c r="C20" s="37">
-        <v>53804.847999999998</v>
+        <v>66318.861000000004</v>
       </c>
       <c r="D20" s="37">
-        <v>603360.27921627695</v>
+        <v>706685.56793527002</v>
       </c>
       <c r="E20" s="37">
-        <v>484524.39967677899</v>
+        <v>586202.15002995299</v>
       </c>
       <c r="F20" s="37">
-        <v>118835.879539498</v>
+        <v>120483.41790531699</v>
       </c>
       <c r="G20" s="37">
-        <v>484524.39967677899</v>
+        <v>586202.15002995299</v>
       </c>
       <c r="H20" s="37">
-        <v>0.19695674977785699</v>
+        <v>0.170490842564303</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -61443,22 +61608,22 @@
         <v>34</v>
       </c>
       <c r="C21" s="37">
-        <v>42046.790999999997</v>
+        <v>27824.991000000002</v>
       </c>
       <c r="D21" s="37">
-        <v>231848.630659216</v>
+        <v>168032.767786385</v>
       </c>
       <c r="E21" s="37">
-        <v>172419.313790724</v>
+        <v>127223.566853575</v>
       </c>
       <c r="F21" s="37">
-        <v>59429.316868492097</v>
+        <v>40809.200932810498</v>
       </c>
       <c r="G21" s="37">
-        <v>172419.313790724</v>
+        <v>127223.566853575</v>
       </c>
       <c r="H21" s="37">
-        <v>0.25632809087341302</v>
+        <v>0.242864540472784</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -61469,22 +61634,22 @@
         <v>35</v>
       </c>
       <c r="C22" s="37">
-        <v>26622.082999999999</v>
+        <v>30571.954000000002</v>
       </c>
       <c r="D22" s="37">
-        <v>850556.63184336305</v>
+        <v>993316.65350973501</v>
       </c>
       <c r="E22" s="37">
-        <v>827822.119206195</v>
+        <v>966298.76953982306</v>
       </c>
       <c r="F22" s="37">
-        <v>22734.5126371681</v>
+        <v>27017.883969911501</v>
       </c>
       <c r="G22" s="37">
-        <v>827822.119206195</v>
+        <v>966298.76953982306</v>
       </c>
       <c r="H22" s="37">
-        <v>2.6728981688023401E-2</v>
+        <v>2.7199668780793999E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -61495,22 +61660,22 @@
         <v>36</v>
       </c>
       <c r="C23" s="37">
-        <v>146406.15599999999</v>
+        <v>137793.916</v>
       </c>
       <c r="D23" s="37">
-        <v>691970.98678230098</v>
+        <v>635152.62298849598</v>
       </c>
       <c r="E23" s="37">
-        <v>588330.08744496899</v>
+        <v>538351.726601767</v>
       </c>
       <c r="F23" s="37">
-        <v>103640.899337332</v>
+        <v>96800.896386728404</v>
       </c>
       <c r="G23" s="37">
-        <v>588330.08744496899</v>
+        <v>538351.726601767</v>
       </c>
       <c r="H23" s="37">
-        <v>0.14977636536362199</v>
+        <v>0.152405725621134</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -61521,22 +61686,22 @@
         <v>37</v>
       </c>
       <c r="C24" s="37">
-        <v>140816.72899999999</v>
+        <v>174142.96100000001</v>
       </c>
       <c r="D24" s="37">
-        <v>1105783.9094902701</v>
+        <v>1426558.2196831901</v>
       </c>
       <c r="E24" s="37">
-        <v>983922.55344294198</v>
+        <v>1354664.6183696</v>
       </c>
       <c r="F24" s="37">
-        <v>121861.356047323</v>
+        <v>71893.601313587496</v>
       </c>
       <c r="G24" s="37">
-        <v>983922.55344294198</v>
+        <v>1354664.6183696</v>
       </c>
       <c r="H24" s="37">
-        <v>0.11020358950918201</v>
+        <v>5.0396542055993997E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -61547,22 +61712,22 @@
         <v>38</v>
       </c>
       <c r="C25" s="37">
-        <v>520632.91</v>
+        <v>439681.22600000002</v>
       </c>
       <c r="D25" s="37">
-        <v>1937494.85252124</v>
+        <v>1537485.2216451301</v>
       </c>
       <c r="E25" s="37">
-        <v>1993321.3810300899</v>
+        <v>1549414.67979735</v>
       </c>
       <c r="F25" s="37">
-        <v>-55826.528508849602</v>
+        <v>-11929.458152212401</v>
       </c>
       <c r="G25" s="37">
-        <v>1993321.3810300899</v>
+        <v>1549414.67979735</v>
       </c>
       <c r="H25" s="37">
-        <v>-2.8813768684961001E-2</v>
+        <v>-7.7590717518882498E-3</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -61573,22 +61738,22 @@
         <v>39</v>
       </c>
       <c r="C26" s="37">
-        <v>62755.696000000004</v>
+        <v>73316.56</v>
       </c>
       <c r="D26" s="37">
-        <v>128218.268022381</v>
+        <v>227743.42364166901</v>
       </c>
       <c r="E26" s="37">
-        <v>94597.822198162597</v>
+        <v>174596.22775389801</v>
       </c>
       <c r="F26" s="37">
-        <v>33620.445824218499</v>
+        <v>53147.195887770802</v>
       </c>
       <c r="G26" s="37">
-        <v>94597.822198162597</v>
+        <v>174596.22775389801</v>
       </c>
       <c r="H26" s="37">
-        <v>0.26221260310855099</v>
+        <v>0.233364349397823</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -61596,25 +61761,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="37">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C27" s="37">
-        <v>9563.3040000000001</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="D27" s="37">
-        <v>161474.71030000001</v>
+        <v>8.2905999999999995</v>
       </c>
       <c r="E27" s="37">
-        <v>141343.43119999999</v>
+        <v>8.2905999999999995</v>
       </c>
       <c r="F27" s="37">
-        <v>20131.2791</v>
+        <v>0</v>
       </c>
       <c r="G27" s="37">
-        <v>141343.43119999999</v>
+        <v>8.2905999999999995</v>
       </c>
       <c r="H27" s="37">
-        <v>0.12467140558790001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -61622,25 +61787,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="37">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="37">
-        <v>1594.89</v>
+        <v>11002.915999999999</v>
       </c>
       <c r="D28" s="37">
-        <v>6231.9309000000003</v>
+        <v>217315.3112</v>
       </c>
       <c r="E28" s="37">
-        <v>6159.3734999999997</v>
+        <v>199876.3015</v>
       </c>
       <c r="F28" s="37">
-        <v>72.557400000000001</v>
+        <v>17439.009699999999</v>
       </c>
       <c r="G28" s="37">
-        <v>6159.3734999999997</v>
+        <v>199876.3015</v>
       </c>
       <c r="H28" s="37">
-        <v>1.1642844114333801E-2</v>
+        <v>8.0247496615415706E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -61648,25 +61813,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="37">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="C29" s="37">
-        <v>181</v>
+        <v>1391.25</v>
       </c>
       <c r="D29" s="37">
-        <v>117956.41025641</v>
+        <v>6393.5541000000003</v>
       </c>
       <c r="E29" s="37">
-        <v>108312.70512820499</v>
+        <v>6181.0010000000002</v>
       </c>
       <c r="F29" s="37">
-        <v>9643.7051282051307</v>
+        <v>212.5531</v>
       </c>
       <c r="G29" s="37">
-        <v>108312.70512820499</v>
+        <v>6181.0010000000002</v>
       </c>
       <c r="H29" s="37">
-        <v>8.1756515879399194E-2</v>
+        <v>3.3244905208513101E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -61674,25 +61839,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="37">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="37">
-        <v>2651</v>
+        <v>99</v>
       </c>
       <c r="D30" s="37">
-        <v>502550.75888034201</v>
+        <v>33008.547008547001</v>
       </c>
       <c r="E30" s="37">
-        <v>468871.70553162397</v>
+        <v>31267.055555555598</v>
       </c>
       <c r="F30" s="37">
-        <v>33679.053348717898</v>
+        <v>1741.4914529914499</v>
       </c>
       <c r="G30" s="37">
-        <v>468871.70553162397</v>
+        <v>31267.055555555598</v>
       </c>
       <c r="H30" s="37">
-        <v>6.7016222249376797E-2</v>
+        <v>5.2758803728637997E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -61700,49 +61865,51 @@
         <v>30</v>
       </c>
       <c r="B31" s="39">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C31" s="40">
-        <v>7</v>
+        <v>2509</v>
       </c>
       <c r="D31" s="40">
-        <v>11789.5166780123</v>
+        <v>469741.13965982897</v>
       </c>
       <c r="E31" s="40">
-        <v>10333.034445200799</v>
+        <v>447190.87065897399</v>
       </c>
       <c r="F31" s="40">
-        <v>1456.4822328114401</v>
+        <v>22550.2690008547</v>
       </c>
       <c r="G31" s="40">
-        <v>10333.034445200799</v>
+        <v>447190.87065897399</v>
       </c>
       <c r="H31" s="40">
-        <v>0.123540453149179</v>
+        <v>4.80057357062336E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="30"/>
+      <c r="A32" s="30">
+        <v>31</v>
+      </c>
       <c r="B32" s="39">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="C32" s="40">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D32" s="40">
-        <v>0</v>
+        <v>11417.8730807049</v>
       </c>
       <c r="E32" s="40">
-        <v>0</v>
+        <v>10451.108917631</v>
       </c>
       <c r="F32" s="40">
-        <v>0</v>
+        <v>966.76416307389798</v>
       </c>
       <c r="G32" s="40">
-        <v>0</v>
+        <v>10451.108917631</v>
       </c>
       <c r="H32" s="40">
-        <v>0</v>
+        <v>8.4671125369893296E-2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -61775,13 +61942,13 @@
         <v>70</v>
       </c>
       <c r="C34" s="34">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="D34" s="34">
-        <v>72582.929999999993</v>
+        <v>57870.17</v>
       </c>
       <c r="E34" s="34">
-        <v>72206.259999999995</v>
+        <v>57807.76</v>
       </c>
       <c r="F34" s="30"/>
       <c r="G34" s="30"/>
@@ -61793,13 +61960,13 @@
         <v>71</v>
       </c>
       <c r="C35" s="34">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D35" s="34">
-        <v>109345.32</v>
+        <v>106335.11</v>
       </c>
       <c r="E35" s="34">
-        <v>118820.79</v>
+        <v>114414.16</v>
       </c>
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
@@ -61811,13 +61978,13 @@
         <v>72</v>
       </c>
       <c r="C36" s="34">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="D36" s="34">
-        <v>176146.26</v>
+        <v>318512.09999999998</v>
       </c>
       <c r="E36" s="34">
-        <v>177804.24</v>
+        <v>324109.51</v>
       </c>
       <c r="F36" s="30"/>
       <c r="G36" s="30"/>
@@ -61829,13 +61996,13 @@
         <v>73</v>
       </c>
       <c r="C37" s="34">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D37" s="34">
-        <v>118365.07</v>
+        <v>122942.88</v>
       </c>
       <c r="E37" s="34">
-        <v>129413.61</v>
+        <v>133383.70000000001</v>
       </c>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
@@ -61847,13 +62014,13 @@
         <v>74</v>
       </c>
       <c r="C38" s="34">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="D38" s="34">
-        <v>0.49</v>
+        <v>1.22</v>
       </c>
       <c r="E38" s="34">
-        <v>2718.04</v>
+        <v>7944.45</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="30"/>
@@ -61865,13 +62032,13 @@
         <v>77</v>
       </c>
       <c r="C39" s="34">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D39" s="34">
-        <v>75362.45</v>
+        <v>58762.42</v>
       </c>
       <c r="E39" s="34">
-        <v>89872.97</v>
+        <v>63825.68</v>
       </c>
       <c r="F39" s="34"/>
       <c r="G39" s="30"/>
@@ -61883,13 +62050,13 @@
         <v>78</v>
       </c>
       <c r="C40" s="34">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D40" s="34">
-        <v>47512.02</v>
+        <v>25055.59</v>
       </c>
       <c r="E40" s="34">
-        <v>41206.19</v>
+        <v>21564.720000000001</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="30"/>
